--- a/main/High-level comparison.xlsx
+++ b/main/High-level comparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smros\OneDrive\Documents\00 CAMBRIDGE WORK\09 Thesis\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smros\OneDrive\Documents\00 CAMBRIDGE WORK\09 Thesis\Software\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A42546-BD92-4DAB-B870-EEB94169FC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD80F9F-169D-4784-9ACC-6E8682267601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline power baseline cooling" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -461,15 +461,14 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4301,8 +4300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE481C-B9F6-4D8D-9342-779623CCBDB3}">
   <dimension ref="A1:AN45"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AJ5" sqref="AJ5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4327,65 +4326,65 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="I2" s="13" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="11" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="Q2" s="13" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="Q2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="11" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="Y2" s="13" t="s">
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="Y2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="11" t="s">
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AG2" s="13" t="s">
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AG2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="11" t="s">
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="1">
         <v>10</v>
       </c>
@@ -4401,8 +4400,8 @@
       <c r="G3" s="1">
         <v>30</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
       <c r="K3" s="1">
         <v>10</v>
       </c>
@@ -4418,8 +4417,8 @@
       <c r="O3" s="1">
         <v>30</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
       <c r="S3" s="1">
         <v>10</v>
       </c>
@@ -4435,8 +4434,8 @@
       <c r="W3" s="1">
         <v>30</v>
       </c>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
       <c r="AA3" s="1">
         <v>10</v>
       </c>
@@ -4452,8 +4451,8 @@
       <c r="AE3" s="1">
         <v>30</v>
       </c>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
       <c r="AI3" s="1">
         <v>10</v>
       </c>
@@ -4474,7 +4473,7 @@
       </c>
     </row>
     <row r="4" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="1">
@@ -4504,7 +4503,7 @@
         <f>235.5+$C$41</f>
         <v>18379.5</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J4" s="1">
@@ -4534,7 +4533,7 @@
         <f>33+$C$42/1000</f>
         <v>1530</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="R4" s="1">
@@ -4564,7 +4563,7 @@
         <f>13.68+$C$43/1000</f>
         <v>476.08</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Y4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="Z4" s="1">
@@ -4594,7 +4593,7 @@
         <f>198+$C$44</f>
         <v>9179</v>
       </c>
-      <c r="AG4" s="12" t="s">
+      <c r="AG4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AH4" s="1">
@@ -4626,7 +4625,7 @@
       </c>
     </row>
     <row r="5" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -4650,7 +4649,7 @@
         <f ca="1">'CAC-only comparison'!G5+IF($B5=0.0113,$C$41,$B$41)</f>
         <v>18522.591</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -4674,7 +4673,7 @@
         <f ca="1">'CAC-only comparison'!O5+(IF($J5=0.0113,$C$42,$B$42)/1000)</f>
         <v>1286.4857402</v>
       </c>
-      <c r="Q5" s="12"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -4698,7 +4697,7 @@
         <f ca="1">'CAC-only comparison'!W5+(IF($R5=0.0113,$C$43,$B$43)/1000)</f>
         <v>370.70174750000001</v>
       </c>
-      <c r="Y5" s="12"/>
+      <c r="Y5" s="11"/>
       <c r="Z5" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -4722,7 +4721,7 @@
         <f ca="1">'CAC-only comparison'!AE5+(IF($Z5=0.0113,$C$44,$B$44))</f>
         <v>7787.8288824000001</v>
       </c>
-      <c r="AG5" s="12"/>
+      <c r="AG5" s="11"/>
       <c r="AH5" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -4748,7 +4747,7 @@
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -4772,7 +4771,7 @@
         <f ca="1">'CAC-only comparison'!G6+IF($B6=0.0113,$C$41,$B$41)</f>
         <v>18590.690999999999</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -4796,7 +4795,7 @@
         <f ca="1">'CAC-only comparison'!O6+(IF($J6=0.0113,$C$42,$B$42)/1000)</f>
         <v>1287.55947595</v>
       </c>
-      <c r="Q6" s="12"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -4820,7 +4819,7 @@
         <f ca="1">'CAC-only comparison'!W6+(IF($R6=0.0113,$C$43,$B$43)/1000)</f>
         <v>379.25352629999998</v>
       </c>
-      <c r="Y6" s="12"/>
+      <c r="Y6" s="11"/>
       <c r="Z6" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -4844,7 +4843,7 @@
         <f ca="1">'CAC-only comparison'!AE6+(IF($Z6=0.0113,$C$44,$B$44))</f>
         <v>7800.7137113999997</v>
       </c>
-      <c r="AG6" s="12"/>
+      <c r="AG6" s="11"/>
       <c r="AH6" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -4870,7 +4869,7 @@
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -4894,7 +4893,7 @@
         <f ca="1">'CAC-only comparison'!G7+IF($B7=0.0113,$C$41,$B$41)</f>
         <v>18875.491000000002</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -4918,7 +4917,7 @@
         <f ca="1">'CAC-only comparison'!O7+(IF($J7=0.0113,$C$42,$B$42)/1000)</f>
         <v>1286.5746800750001</v>
       </c>
-      <c r="Q7" s="12"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -4942,7 +4941,7 @@
         <f ca="1">'CAC-only comparison'!W7+(IF($R7=0.0113,$C$43,$B$43)/1000)</f>
         <v>388.96814319999999</v>
       </c>
-      <c r="Y7" s="12"/>
+      <c r="Y7" s="11"/>
       <c r="Z7" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -4966,7 +4965,7 @@
         <f ca="1">'CAC-only comparison'!AE7+(IF($Z7=0.0113,$C$44,$B$44))</f>
         <v>7788.8961608999998</v>
       </c>
-      <c r="AG7" s="12"/>
+      <c r="AG7" s="11"/>
       <c r="AH7" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -4995,7 +4994,7 @@
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A8" s="12"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -5019,7 +5018,7 @@
         <f ca="1">'CAC-only comparison'!G8+IF($B8=0.0113,$C$41,$B$41)</f>
         <v>19018.791000000001</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -5043,7 +5042,7 @@
         <f ca="1">'CAC-only comparison'!O8+(IF($J8=0.0113,$C$42,$B$42)/1000)</f>
         <v>1286.0773548249999</v>
       </c>
-      <c r="Q8" s="12"/>
+      <c r="Q8" s="11"/>
       <c r="R8" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -5067,7 +5066,7 @@
         <f ca="1">'CAC-only comparison'!W8+(IF($R8=0.0113,$C$43,$B$43)/1000)</f>
         <v>423.85309189999998</v>
       </c>
-      <c r="Y8" s="12"/>
+      <c r="Y8" s="11"/>
       <c r="Z8" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -5091,7 +5090,7 @@
         <f ca="1">'CAC-only comparison'!AE8+(IF($Z8=0.0113,$C$44,$B$44))</f>
         <v>7782.9282579000001</v>
       </c>
-      <c r="AG8" s="12"/>
+      <c r="AG8" s="11"/>
       <c r="AH8" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -5121,65 +5120,65 @@
       </c>
     </row>
     <row r="11" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="I11" s="13" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="I11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="11" t="s">
+      <c r="J11" s="12"/>
+      <c r="K11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="Q11" s="13" t="s">
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="Q11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="11" t="s">
+      <c r="R11" s="12"/>
+      <c r="S11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="Y11" s="13" t="s">
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="Y11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="11" t="s">
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AG11" s="13" t="s">
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AG11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="11" t="s">
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="11"/>
-      <c r="AM11" s="11"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="1">
         <v>10</v>
       </c>
@@ -5195,8 +5194,8 @@
       <c r="G12" s="1">
         <v>30</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
@@ -5212,8 +5211,8 @@
       <c r="O12" s="1">
         <v>30</v>
       </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
       <c r="S12" s="1">
         <v>10</v>
       </c>
@@ -5229,8 +5228,8 @@
       <c r="W12" s="1">
         <v>30</v>
       </c>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
       <c r="AA12" s="1">
         <v>10</v>
       </c>
@@ -5246,8 +5245,8 @@
       <c r="AE12" s="1">
         <v>30</v>
       </c>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
       <c r="AI12" s="1">
         <v>10</v>
       </c>
@@ -5268,7 +5267,7 @@
       </c>
     </row>
     <row r="13" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="1">
@@ -5298,7 +5297,7 @@
         <f>235.5+$C$41</f>
         <v>18379.5</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J13" s="1">
@@ -5328,7 +5327,7 @@
         <f>33+$C$42/1000</f>
         <v>1530</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="R13" s="1">
@@ -5358,7 +5357,7 @@
         <f>13.68+$C$43/1000</f>
         <v>476.08</v>
       </c>
-      <c r="Y13" s="12" t="s">
+      <c r="Y13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="Z13" s="1">
@@ -5388,7 +5387,7 @@
         <f>198+$C$44</f>
         <v>9179</v>
       </c>
-      <c r="AG13" s="12" t="s">
+      <c r="AG13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AH13" s="1">
@@ -5420,7 +5419,7 @@
       </c>
     </row>
     <row r="14" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="12"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -5444,7 +5443,7 @@
         <f ca="1">'CAC-only comparison'!G14+IF($B14=0.0113,$C$41,$B$41)</f>
         <v>18420.690999999999</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -5468,7 +5467,7 @@
         <f ca="1">'CAC-only comparison'!O14+(IF($J14=0.0113,$C$42,$B$42)/1000)</f>
         <v>1287.3260342000001</v>
       </c>
-      <c r="Q14" s="12"/>
+      <c r="Q14" s="11"/>
       <c r="R14" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -5492,7 +5491,7 @@
         <f ca="1">'CAC-only comparison'!W14+(IF($R14=0.0113,$C$43,$B$43)/1000)</f>
         <v>371.52165819999999</v>
       </c>
-      <c r="Y14" s="12"/>
+      <c r="Y14" s="11"/>
       <c r="Z14" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -5516,7 +5515,7 @@
         <f ca="1">'CAC-only comparison'!AE14+(IF($Z14=0.0113,$C$44,$B$44))</f>
         <v>7797.9124104000002</v>
       </c>
-      <c r="AG14" s="12"/>
+      <c r="AG14" s="11"/>
       <c r="AH14" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -5542,7 +5541,7 @@
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A15" s="12"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -5566,7 +5565,7 @@
         <f ca="1">'CAC-only comparison'!G15+IF($B15=0.0113,$C$41,$B$41)</f>
         <v>18551.690999999999</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -5590,7 +5589,7 @@
         <f ca="1">'CAC-only comparison'!O15+(IF($J15=0.0113,$C$42,$B$42)/1000)</f>
         <v>1288.193551075</v>
       </c>
-      <c r="Q15" s="12"/>
+      <c r="Q15" s="11"/>
       <c r="R15" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -5614,7 +5613,7 @@
         <f ca="1">'CAC-only comparison'!W15+(IF($R15=0.0113,$C$43,$B$43)/1000)</f>
         <v>380.01110599999998</v>
       </c>
-      <c r="Y15" s="12"/>
+      <c r="Y15" s="11"/>
       <c r="Z15" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -5638,7 +5637,7 @@
         <f ca="1">'CAC-only comparison'!AE15+(IF($Z15=0.0113,$C$44,$B$44))</f>
         <v>7808.3226129000004</v>
       </c>
-      <c r="AG15" s="12"/>
+      <c r="AG15" s="11"/>
       <c r="AH15" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -5664,7 +5663,7 @@
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A16" s="12"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -5688,7 +5687,7 @@
         <f ca="1">'CAC-only comparison'!G16+IF($B16=0.0113,$C$41,$B$41)</f>
         <v>18561.291000000001</v>
       </c>
-      <c r="I16" s="12"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -5712,7 +5711,7 @@
         <f ca="1">'CAC-only comparison'!O16+(IF($J16=0.0113,$C$42,$B$42)/1000)</f>
         <v>1287.2264339999999</v>
       </c>
-      <c r="Q16" s="12"/>
+      <c r="Q16" s="11"/>
       <c r="R16" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -5736,7 +5735,7 @@
         <f ca="1">'CAC-only comparison'!W16+(IF($R16=0.0113,$C$43,$B$43)/1000)</f>
         <v>390.30258630000003</v>
       </c>
-      <c r="Y16" s="12"/>
+      <c r="Y16" s="11"/>
       <c r="Z16" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -5760,7 +5759,7 @@
         <f ca="1">'CAC-only comparison'!AE16+(IF($Z16=0.0113,$C$44,$B$44))</f>
         <v>7796.717208</v>
       </c>
-      <c r="AG16" s="12"/>
+      <c r="AG16" s="11"/>
       <c r="AH16" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -5789,7 +5788,7 @@
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A17" s="12"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -5813,7 +5812,7 @@
         <f ca="1">'CAC-only comparison'!G17+IF($B17=0.0113,$C$41,$B$41)</f>
         <v>18831.291000000001</v>
       </c>
-      <c r="I17" s="12"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -5837,7 +5836,7 @@
         <f ca="1">'CAC-only comparison'!O17+(IF($J17=0.0113,$C$42,$B$42)/1000)</f>
         <v>1286.7089066000001</v>
       </c>
-      <c r="Q17" s="12"/>
+      <c r="Q17" s="11"/>
       <c r="R17" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -5861,7 +5860,7 @@
         <f ca="1">'CAC-only comparison'!W17+(IF($R17=0.0113,$C$43,$B$43)/1000)</f>
         <v>426.36064220000003</v>
       </c>
-      <c r="Y17" s="12"/>
+      <c r="Y17" s="11"/>
       <c r="Z17" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -5885,7 +5884,7 @@
         <f ca="1">'CAC-only comparison'!AE17+(IF($Z17=0.0113,$C$44,$B$44))</f>
         <v>7790.5068792000002</v>
       </c>
-      <c r="AG17" s="12"/>
+      <c r="AG17" s="11"/>
       <c r="AH17" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -5915,65 +5914,65 @@
       </c>
     </row>
     <row r="20" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="I20" s="13" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="I20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="11" t="s">
+      <c r="J20" s="12"/>
+      <c r="K20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="Q20" s="13" t="s">
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="Q20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R20" s="13"/>
-      <c r="S20" s="11" t="s">
+      <c r="R20" s="12"/>
+      <c r="S20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="Y20" s="13" t="s">
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="Y20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="11" t="s">
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AG20" s="13" t="s">
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AG20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="11" t="s">
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="1">
         <v>10</v>
       </c>
@@ -5989,8 +5988,8 @@
       <c r="G21" s="1">
         <v>30</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="1">
         <v>10</v>
       </c>
@@ -6006,8 +6005,8 @@
       <c r="O21" s="1">
         <v>30</v>
       </c>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
       <c r="S21" s="1">
         <v>10</v>
       </c>
@@ -6023,8 +6022,8 @@
       <c r="W21" s="1">
         <v>30</v>
       </c>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
       <c r="AA21" s="1">
         <v>10</v>
       </c>
@@ -6040,8 +6039,8 @@
       <c r="AE21" s="1">
         <v>30</v>
       </c>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
       <c r="AI21" s="1">
         <v>10</v>
       </c>
@@ -6062,7 +6061,7 @@
       </c>
     </row>
     <row r="22" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="1">
@@ -6092,7 +6091,7 @@
         <f>235.5+$C$41</f>
         <v>18379.5</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J22" s="1">
@@ -6122,7 +6121,7 @@
         <f>33+$C$42/1000</f>
         <v>1530</v>
       </c>
-      <c r="Q22" s="12" t="s">
+      <c r="Q22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="R22" s="1">
@@ -6152,7 +6151,7 @@
         <f>13.68+$C$43/1000</f>
         <v>476.08</v>
       </c>
-      <c r="Y22" s="12" t="s">
+      <c r="Y22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="Z22" s="1">
@@ -6182,7 +6181,7 @@
         <f>198+$C$44</f>
         <v>9179</v>
       </c>
-      <c r="AG22" s="12" t="s">
+      <c r="AG22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AH22" s="1">
@@ -6214,7 +6213,7 @@
       </c>
     </row>
     <row r="23" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="12"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -6238,7 +6237,7 @@
         <f ca="1">'CAC-only comparison'!G23+IF($B23=0.0113,$C$41,$B$41)</f>
         <v>18514.891</v>
       </c>
-      <c r="I23" s="12"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -6262,7 +6261,7 @@
         <f ca="1">'CAC-only comparison'!O23+(IF($J23=0.0113,$C$42,$B$42)/1000)</f>
         <v>1286.6248340499999</v>
       </c>
-      <c r="Q23" s="12"/>
+      <c r="Q23" s="11"/>
       <c r="R23" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -6286,7 +6285,7 @@
         <f ca="1">'CAC-only comparison'!W23+(IF($R23=0.0113,$C$43,$B$43)/1000)</f>
         <v>370.83561529999997</v>
       </c>
-      <c r="Y23" s="12"/>
+      <c r="Y23" s="11"/>
       <c r="Z23" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -6310,7 +6309,7 @@
         <f ca="1">'CAC-only comparison'!AE23+(IF($Z23=0.0113,$C$44,$B$44))</f>
         <v>7789.4980085999996</v>
       </c>
-      <c r="AG23" s="12"/>
+      <c r="AG23" s="11"/>
       <c r="AH23" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -6336,7 +6335,7 @@
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A24" s="12"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -6360,7 +6359,7 @@
         <f ca="1">'CAC-only comparison'!G24+IF($B24=0.0113,$C$41,$B$41)</f>
         <v>18562.391</v>
       </c>
-      <c r="I24" s="12"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -6384,7 +6383,7 @@
         <f ca="1">'CAC-only comparison'!O24+(IF($J24=0.0113,$C$42,$B$42)/1000)</f>
         <v>1287.625050075</v>
       </c>
-      <c r="Q24" s="12"/>
+      <c r="Q24" s="11"/>
       <c r="R24" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -6408,7 +6407,7 @@
         <f ca="1">'CAC-only comparison'!W24+(IF($R24=0.0113,$C$43,$B$43)/1000)</f>
         <v>379.33103949999997</v>
       </c>
-      <c r="Y24" s="12"/>
+      <c r="Y24" s="11"/>
       <c r="Z24" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -6432,7 +6431,7 @@
         <f ca="1">'CAC-only comparison'!AE24+(IF($Z24=0.0113,$C$44,$B$44))</f>
         <v>7801.5006008999999</v>
       </c>
-      <c r="AG24" s="12"/>
+      <c r="AG24" s="11"/>
       <c r="AH24" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -6458,7 +6457,7 @@
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A25" s="12"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -6482,7 +6481,7 @@
         <f ca="1">'CAC-only comparison'!G25+IF($B25=0.0113,$C$41,$B$41)</f>
         <v>18841.991000000002</v>
       </c>
-      <c r="I25" s="12"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -6506,7 +6505,7 @@
         <f ca="1">'CAC-only comparison'!O25+(IF($J25=0.0113,$C$42,$B$42)/1000)</f>
         <v>1286.535883</v>
       </c>
-      <c r="Q25" s="12"/>
+      <c r="Q25" s="11"/>
       <c r="R25" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -6530,7 +6529,7 @@
         <f ca="1">'CAC-only comparison'!W25+(IF($R25=0.0113,$C$43,$B$43)/1000)</f>
         <v>388.84179779999999</v>
       </c>
-      <c r="Y25" s="12"/>
+      <c r="Y25" s="11"/>
       <c r="Z25" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -6554,7 +6553,7 @@
         <f ca="1">'CAC-only comparison'!AE25+(IF($Z25=0.0113,$C$44,$B$44))</f>
         <v>7788.4305960000002</v>
       </c>
-      <c r="AG25" s="12"/>
+      <c r="AG25" s="11"/>
       <c r="AH25" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -6583,7 +6582,7 @@
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A26" s="12"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -6607,7 +6606,7 @@
         <f ca="1">'CAC-only comparison'!G26+IF($B26=0.0113,$C$41,$B$41)</f>
         <v>19024.891</v>
       </c>
-      <c r="I26" s="12"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -6631,7 +6630,7 @@
         <f ca="1">'CAC-only comparison'!O26+(IF($J26=0.0113,$C$42,$B$42)/1000)</f>
         <v>1286.1232522</v>
       </c>
-      <c r="Q26" s="12"/>
+      <c r="Q26" s="11"/>
       <c r="R26" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -6655,7 +6654,7 @@
         <f ca="1">'CAC-only comparison'!W26+(IF($R26=0.0113,$C$43,$B$43)/1000)</f>
         <v>424.02708150000001</v>
       </c>
-      <c r="Y26" s="12"/>
+      <c r="Y26" s="11"/>
       <c r="Z26" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -6679,7 +6678,7 @@
         <f ca="1">'CAC-only comparison'!AE26+(IF($Z26=0.0113,$C$44,$B$44))</f>
         <v>7783.4790264000003</v>
       </c>
-      <c r="AG26" s="12"/>
+      <c r="AG26" s="11"/>
       <c r="AH26" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -6709,65 +6708,65 @@
       </c>
     </row>
     <row r="29" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="I29" s="13" t="s">
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="I29" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="11" t="s">
+      <c r="J29" s="12"/>
+      <c r="K29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="Q29" s="13" t="s">
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="Q29" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R29" s="13"/>
-      <c r="S29" s="11" t="s">
+      <c r="R29" s="12"/>
+      <c r="S29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="Y29" s="13" t="s">
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="Y29" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="11" t="s">
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
-      <c r="AG29" s="13" t="s">
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AG29" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="11" t="s">
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AJ29" s="11"/>
-      <c r="AK29" s="11"/>
-      <c r="AL29" s="11"/>
-      <c r="AM29" s="11"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="13"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="1">
         <v>10</v>
       </c>
@@ -6783,8 +6782,8 @@
       <c r="G30" s="1">
         <v>30</v>
       </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
       <c r="K30" s="1">
         <v>10</v>
       </c>
@@ -6800,8 +6799,8 @@
       <c r="O30" s="1">
         <v>30</v>
       </c>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
       <c r="S30" s="1">
         <v>10</v>
       </c>
@@ -6817,8 +6816,8 @@
       <c r="W30" s="1">
         <v>30</v>
       </c>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
       <c r="AA30" s="1">
         <v>10</v>
       </c>
@@ -6834,8 +6833,8 @@
       <c r="AE30" s="1">
         <v>30</v>
       </c>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="13"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
       <c r="AI30" s="1">
         <v>10</v>
       </c>
@@ -6856,7 +6855,7 @@
       </c>
     </row>
     <row r="31" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="1">
@@ -6886,7 +6885,7 @@
         <f>235.5+$C$41</f>
         <v>18379.5</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J31" s="1">
@@ -6916,7 +6915,7 @@
         <f>33+$C$42/1000</f>
         <v>1530</v>
       </c>
-      <c r="Q31" s="12" t="s">
+      <c r="Q31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="R31" s="1">
@@ -6946,7 +6945,7 @@
         <f>13.68+$C$43/1000</f>
         <v>476.08</v>
       </c>
-      <c r="Y31" s="12" t="s">
+      <c r="Y31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="Z31" s="1">
@@ -6976,7 +6975,7 @@
         <f>198+$C$44</f>
         <v>9179</v>
       </c>
-      <c r="AG31" s="12" t="s">
+      <c r="AG31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AH31" s="1">
@@ -7008,7 +7007,7 @@
       </c>
     </row>
     <row r="32" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="12"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -7032,7 +7031,7 @@
         <f ca="1">'CAC-only comparison'!G32+IF($B32=0.0113,$C$41,$B$41)</f>
         <v>18403.491000000002</v>
       </c>
-      <c r="I32" s="12"/>
+      <c r="I32" s="11"/>
       <c r="J32" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -7056,7 +7055,7 @@
         <f ca="1">'CAC-only comparison'!O32+(IF($J32=0.0113,$C$42,$B$42)/1000)</f>
         <v>1287.677765525</v>
       </c>
-      <c r="Q32" s="12"/>
+      <c r="Q32" s="11"/>
       <c r="R32" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -7080,7 +7079,7 @@
         <f ca="1">'CAC-only comparison'!W32+(IF($R32=0.0113,$C$43,$B$43)/1000)</f>
         <v>371.94628160000002</v>
       </c>
-      <c r="Y32" s="12"/>
+      <c r="Y32" s="11"/>
       <c r="Z32" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -7104,7 +7103,7 @@
         <f ca="1">'CAC-only comparison'!AE32+(IF($Z32=0.0113,$C$44,$B$44))</f>
         <v>7802.1331862999996</v>
       </c>
-      <c r="AG32" s="12"/>
+      <c r="AG32" s="11"/>
       <c r="AH32" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -7130,7 +7129,7 @@
       </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A33" s="12"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -7154,7 +7153,7 @@
         <f ca="1">'CAC-only comparison'!G33+IF($B33=0.0113,$C$41,$B$41)</f>
         <v>18518.190999999999</v>
       </c>
-      <c r="I33" s="12"/>
+      <c r="I33" s="11"/>
       <c r="J33" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -7178,7 +7177,7 @@
         <f ca="1">'CAC-only comparison'!O33+(IF($J33=0.0113,$C$42,$B$42)/1000)</f>
         <v>1288.3619931000001</v>
       </c>
-      <c r="Q33" s="12"/>
+      <c r="Q33" s="11"/>
       <c r="R33" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -7202,7 +7201,7 @@
         <f ca="1">'CAC-only comparison'!W33+(IF($R33=0.0113,$C$43,$B$43)/1000)</f>
         <v>380.23660230000002</v>
       </c>
-      <c r="Y33" s="12"/>
+      <c r="Y33" s="11"/>
       <c r="Z33" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -7226,7 +7225,7 @@
         <f ca="1">'CAC-only comparison'!AE33+(IF($Z33=0.0113,$C$44,$B$44))</f>
         <v>7810.3439171999999</v>
       </c>
-      <c r="AG33" s="12"/>
+      <c r="AG33" s="11"/>
       <c r="AH33" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -7252,7 +7251,7 @@
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A34" s="12"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -7276,7 +7275,7 @@
         <f ca="1">'CAC-only comparison'!G34+IF($B34=0.0113,$C$41,$B$41)</f>
         <v>18513.391</v>
       </c>
-      <c r="I34" s="12"/>
+      <c r="I34" s="11"/>
       <c r="J34" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -7300,7 +7299,7 @@
         <f ca="1">'CAC-only comparison'!O34+(IF($J34=0.0113,$C$42,$B$42)/1000)</f>
         <v>1286.9928271250001</v>
       </c>
-      <c r="Q34" s="12"/>
+      <c r="Q34" s="11"/>
       <c r="R34" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -7324,7 +7323,7 @@
         <f ca="1">'CAC-only comparison'!W34+(IF($R34=0.0113,$C$43,$B$43)/1000)</f>
         <v>389.76880080000001</v>
       </c>
-      <c r="Y34" s="12"/>
+      <c r="Y34" s="11"/>
       <c r="Z34" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -7348,7 +7347,7 @@
         <f ca="1">'CAC-only comparison'!AE34+(IF($Z34=0.0113,$C$44,$B$44))</f>
         <v>7793.9139255</v>
       </c>
-      <c r="AG34" s="12"/>
+      <c r="AG34" s="11"/>
       <c r="AH34" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -7377,7 +7376,7 @@
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A35" s="12"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -7401,7 +7400,7 @@
         <f ca="1">'CAC-only comparison'!G35+IF($B35=0.0113,$C$41,$B$41)</f>
         <v>18831.291000000001</v>
       </c>
-      <c r="I35" s="12"/>
+      <c r="I35" s="11"/>
       <c r="J35" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -7425,7 +7424,7 @@
         <f ca="1">'CAC-only comparison'!O35+(IF($J35=0.0113,$C$42,$B$42)/1000)</f>
         <v>1286.7089066000001</v>
       </c>
-      <c r="Q35" s="12"/>
+      <c r="Q35" s="11"/>
       <c r="R35" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -7449,7 +7448,7 @@
         <f ca="1">'CAC-only comparison'!W35+(IF($R35=0.0113,$C$43,$B$43)/1000)</f>
         <v>426.36064220000003</v>
       </c>
-      <c r="Y35" s="12"/>
+      <c r="Y35" s="11"/>
       <c r="Z35" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -7473,7 +7472,7 @@
         <f ca="1">'CAC-only comparison'!AE35+(IF($Z35=0.0113,$C$44,$B$44))</f>
         <v>7790.5068792000002</v>
       </c>
-      <c r="AG35" s="12"/>
+      <c r="AG35" s="11"/>
       <c r="AH35" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -7602,6 +7601,51 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="AG2:AH3"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Y2:Z3"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="AG11:AH12"/>
+    <mergeCell ref="AI11:AM11"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="Y13:Y17"/>
+    <mergeCell ref="AG13:AG17"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="Q11:R12"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="Y11:Z12"/>
+    <mergeCell ref="AA11:AE11"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="AA20:AE20"/>
+    <mergeCell ref="AG20:AH21"/>
+    <mergeCell ref="AI20:AM20"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="Q22:Q26"/>
+    <mergeCell ref="Y22:Y26"/>
+    <mergeCell ref="AG22:AG26"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="S20:W20"/>
+    <mergeCell ref="Y20:Z21"/>
+    <mergeCell ref="A20:B21"/>
     <mergeCell ref="AA29:AE29"/>
     <mergeCell ref="AG29:AH30"/>
     <mergeCell ref="AI29:AM29"/>
@@ -7617,51 +7661,6 @@
     <mergeCell ref="S29:W29"/>
     <mergeCell ref="Y29:Z30"/>
     <mergeCell ref="A29:B30"/>
-    <mergeCell ref="AA20:AE20"/>
-    <mergeCell ref="AG20:AH21"/>
-    <mergeCell ref="AI20:AM20"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="I22:I26"/>
-    <mergeCell ref="Q22:Q26"/>
-    <mergeCell ref="Y22:Y26"/>
-    <mergeCell ref="AG22:AG26"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="Y20:Z21"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="AG11:AH12"/>
-    <mergeCell ref="AI11:AM11"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="I13:I17"/>
-    <mergeCell ref="Q13:Q17"/>
-    <mergeCell ref="Y13:Y17"/>
-    <mergeCell ref="AG13:AG17"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="Q11:R12"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="Y11:Z12"/>
-    <mergeCell ref="AA11:AE11"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="AG2:AH3"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Y2:Z3"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="I4:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:G8">
     <cfRule type="colorScale" priority="20">
@@ -7937,65 +7936,65 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="I2" s="13" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="11" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="Q2" s="13" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="Q2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="11" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="Y2" s="13" t="s">
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="Y2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="11" t="s">
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AG2" s="13" t="s">
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AG2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="11" t="s">
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="1">
         <v>10</v>
       </c>
@@ -8011,8 +8010,8 @@
       <c r="G3" s="1">
         <v>30</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
       <c r="K3" s="1">
         <v>10</v>
       </c>
@@ -8028,8 +8027,8 @@
       <c r="O3" s="1">
         <v>30</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
       <c r="S3" s="1">
         <v>10</v>
       </c>
@@ -8045,8 +8044,8 @@
       <c r="W3" s="1">
         <v>30</v>
       </c>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
       <c r="AA3" s="1">
         <v>10</v>
       </c>
@@ -8062,8 +8061,8 @@
       <c r="AE3" s="1">
         <v>30</v>
       </c>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
       <c r="AI3" s="1">
         <v>10</v>
       </c>
@@ -8084,7 +8083,7 @@
       </c>
     </row>
     <row r="4" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="1">
@@ -8114,7 +8113,7 @@
         <f>235.5+$C$41</f>
         <v>18379.5</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J4" s="1">
@@ -8144,7 +8143,7 @@
         <f>33+$C$42/1000</f>
         <v>1530</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="R4" s="1">
@@ -8174,7 +8173,7 @@
         <f>13.68+$C$43/1000</f>
         <v>476.08</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Y4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="Z4" s="1">
@@ -8204,7 +8203,7 @@
         <f>198+$C$44</f>
         <v>9179</v>
       </c>
-      <c r="AG4" s="12" t="s">
+      <c r="AG4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AH4" s="1">
@@ -8236,7 +8235,7 @@
       </c>
     </row>
     <row r="5" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -8260,7 +8259,7 @@
         <f ca="1">'CAC-only better cool'!G5+IF($B5=0.0113,$C$41,$B$41)</f>
         <v>18522.591</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -8284,7 +8283,7 @@
         <f ca="1">'CAC-only better cool'!O5+(IF($J5=0.0113,$C$42,$B$42)/1000)</f>
         <v>1286.4857402</v>
       </c>
-      <c r="Q5" s="12"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -8308,7 +8307,7 @@
         <f ca="1">'CAC-only better cool'!W5+(IF($R5=0.0113,$C$43,$B$43)/1000)</f>
         <v>351.5</v>
       </c>
-      <c r="Y5" s="12"/>
+      <c r="Y5" s="11"/>
       <c r="Z5" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -8332,7 +8331,7 @@
         <f ca="1">'CAC-only better cool'!AE5+(IF($Z5=0.0113,$C$44,$B$44))</f>
         <v>7787.8288824000001</v>
       </c>
-      <c r="AG5" s="12"/>
+      <c r="AG5" s="11"/>
       <c r="AH5" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -8358,7 +8357,7 @@
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -8382,7 +8381,7 @@
         <f ca="1">'CAC-only better cool'!G6+IF($B6=0.0113,$C$41,$B$41)</f>
         <v>18590.690999999999</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -8406,7 +8405,7 @@
         <f ca="1">'CAC-only better cool'!O6+(IF($J6=0.0113,$C$42,$B$42)/1000)</f>
         <v>1287.55947595</v>
       </c>
-      <c r="Q6" s="12"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -8430,7 +8429,7 @@
         <f ca="1">'CAC-only better cool'!W6+(IF($R6=0.0113,$C$43,$B$43)/1000)</f>
         <v>351.5</v>
       </c>
-      <c r="Y6" s="12"/>
+      <c r="Y6" s="11"/>
       <c r="Z6" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -8454,7 +8453,7 @@
         <f ca="1">'CAC-only better cool'!AE6+(IF($Z6=0.0113,$C$44,$B$44))</f>
         <v>7800.7137113999997</v>
       </c>
-      <c r="AG6" s="12"/>
+      <c r="AG6" s="11"/>
       <c r="AH6" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -8480,7 +8479,7 @@
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -8504,7 +8503,7 @@
         <f ca="1">'CAC-only better cool'!G7+IF($B7=0.0113,$C$41,$B$41)</f>
         <v>18875.491000000002</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -8528,7 +8527,7 @@
         <f ca="1">'CAC-only better cool'!O7+(IF($J7=0.0113,$C$42,$B$42)/1000)</f>
         <v>1286.5746800750001</v>
       </c>
-      <c r="Q7" s="12"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -8552,7 +8551,7 @@
         <f ca="1">'CAC-only better cool'!W7+(IF($R7=0.0113,$C$43,$B$43)/1000)</f>
         <v>351.5</v>
       </c>
-      <c r="Y7" s="12"/>
+      <c r="Y7" s="11"/>
       <c r="Z7" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -8576,7 +8575,7 @@
         <f ca="1">'CAC-only better cool'!AE7+(IF($Z7=0.0113,$C$44,$B$44))</f>
         <v>7788.8961608999998</v>
       </c>
-      <c r="AG7" s="12"/>
+      <c r="AG7" s="11"/>
       <c r="AH7" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -8605,7 +8604,7 @@
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A8" s="12"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -8629,7 +8628,7 @@
         <f ca="1">'CAC-only better cool'!G8+IF($B8=0.0113,$C$41,$B$41)</f>
         <v>19018.791000000001</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -8653,7 +8652,7 @@
         <f ca="1">'CAC-only better cool'!O8+(IF($J8=0.0113,$C$42,$B$42)/1000)</f>
         <v>1286.0773548249999</v>
       </c>
-      <c r="Q8" s="12"/>
+      <c r="Q8" s="11"/>
       <c r="R8" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -8677,7 +8676,7 @@
         <f ca="1">'CAC-only better cool'!W8+(IF($R8=0.0113,$C$43,$B$43)/1000)</f>
         <v>351.5</v>
       </c>
-      <c r="Y8" s="12"/>
+      <c r="Y8" s="11"/>
       <c r="Z8" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -8701,7 +8700,7 @@
         <f ca="1">'CAC-only better cool'!AE8+(IF($Z8=0.0113,$C$44,$B$44))</f>
         <v>7782.9282579000001</v>
       </c>
-      <c r="AG8" s="12"/>
+      <c r="AG8" s="11"/>
       <c r="AH8" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -8731,65 +8730,65 @@
       </c>
     </row>
     <row r="11" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="I11" s="13" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="I11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="11" t="s">
+      <c r="J11" s="12"/>
+      <c r="K11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="Q11" s="13" t="s">
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="Q11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="11" t="s">
+      <c r="R11" s="12"/>
+      <c r="S11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="Y11" s="13" t="s">
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="Y11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="11" t="s">
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AG11" s="13" t="s">
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AG11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="11" t="s">
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="11"/>
-      <c r="AM11" s="11"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="1">
         <v>10</v>
       </c>
@@ -8805,8 +8804,8 @@
       <c r="G12" s="1">
         <v>30</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
@@ -8822,8 +8821,8 @@
       <c r="O12" s="1">
         <v>30</v>
       </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
       <c r="S12" s="1">
         <v>10</v>
       </c>
@@ -8839,8 +8838,8 @@
       <c r="W12" s="1">
         <v>30</v>
       </c>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
       <c r="AA12" s="1">
         <v>10</v>
       </c>
@@ -8856,8 +8855,8 @@
       <c r="AE12" s="1">
         <v>30</v>
       </c>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
       <c r="AI12" s="1">
         <v>10</v>
       </c>
@@ -8878,7 +8877,7 @@
       </c>
     </row>
     <row r="13" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="1">
@@ -8908,7 +8907,7 @@
         <f>235.5+$C$41</f>
         <v>18379.5</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J13" s="1">
@@ -8938,7 +8937,7 @@
         <f>33+$C$42/1000</f>
         <v>1530</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="R13" s="1">
@@ -8968,7 +8967,7 @@
         <f>13.68+$C$43/1000</f>
         <v>476.08</v>
       </c>
-      <c r="Y13" s="12" t="s">
+      <c r="Y13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="Z13" s="1">
@@ -8998,7 +8997,7 @@
         <f>198+$C$44</f>
         <v>9179</v>
       </c>
-      <c r="AG13" s="12" t="s">
+      <c r="AG13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AH13" s="1">
@@ -9030,7 +9029,7 @@
       </c>
     </row>
     <row r="14" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="12"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -9054,7 +9053,7 @@
         <f ca="1">'CAC-only better cool'!G14+IF($B14=0.0113,$C$41,$B$41)</f>
         <v>18420.690999999999</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -9078,7 +9077,7 @@
         <f ca="1">'CAC-only better cool'!O14+(IF($J14=0.0113,$C$42,$B$42)/1000)</f>
         <v>1287.3260342000001</v>
       </c>
-      <c r="Q14" s="12"/>
+      <c r="Q14" s="11"/>
       <c r="R14" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -9102,7 +9101,7 @@
         <f ca="1">'CAC-only better cool'!W14+(IF($R14=0.0113,$C$43,$B$43)/1000)</f>
         <v>351.5</v>
       </c>
-      <c r="Y14" s="12"/>
+      <c r="Y14" s="11"/>
       <c r="Z14" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -9126,7 +9125,7 @@
         <f ca="1">'CAC-only comparison'!AE14+(IF($Z14=0.0113,$C$44,$B$44))</f>
         <v>7797.9124104000002</v>
       </c>
-      <c r="AG14" s="12"/>
+      <c r="AG14" s="11"/>
       <c r="AH14" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -9152,7 +9151,7 @@
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A15" s="12"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -9176,7 +9175,7 @@
         <f ca="1">'CAC-only better cool'!G15+IF($B15=0.0113,$C$41,$B$41)</f>
         <v>18551.690999999999</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -9200,7 +9199,7 @@
         <f ca="1">'CAC-only better cool'!O15+(IF($J15=0.0113,$C$42,$B$42)/1000)</f>
         <v>1288.193551075</v>
       </c>
-      <c r="Q15" s="12"/>
+      <c r="Q15" s="11"/>
       <c r="R15" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -9224,7 +9223,7 @@
         <f ca="1">'CAC-only better cool'!W15+(IF($R15=0.0113,$C$43,$B$43)/1000)</f>
         <v>351.5</v>
       </c>
-      <c r="Y15" s="12"/>
+      <c r="Y15" s="11"/>
       <c r="Z15" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -9248,7 +9247,7 @@
         <f ca="1">'CAC-only comparison'!AE15+(IF($Z15=0.0113,$C$44,$B$44))</f>
         <v>7808.3226129000004</v>
       </c>
-      <c r="AG15" s="12"/>
+      <c r="AG15" s="11"/>
       <c r="AH15" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -9274,7 +9273,7 @@
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A16" s="12"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -9298,7 +9297,7 @@
         <f ca="1">'CAC-only better cool'!G16+IF($B16=0.0113,$C$41,$B$41)</f>
         <v>18561.291000000001</v>
       </c>
-      <c r="I16" s="12"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -9322,7 +9321,7 @@
         <f ca="1">'CAC-only better cool'!O16+(IF($J16=0.0113,$C$42,$B$42)/1000)</f>
         <v>1287.2264339999999</v>
       </c>
-      <c r="Q16" s="12"/>
+      <c r="Q16" s="11"/>
       <c r="R16" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -9346,7 +9345,7 @@
         <f ca="1">'CAC-only better cool'!W16+(IF($R16=0.0113,$C$43,$B$43)/1000)</f>
         <v>351.5</v>
       </c>
-      <c r="Y16" s="12"/>
+      <c r="Y16" s="11"/>
       <c r="Z16" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -9370,7 +9369,7 @@
         <f ca="1">'CAC-only comparison'!AE16+(IF($Z16=0.0113,$C$44,$B$44))</f>
         <v>7796.717208</v>
       </c>
-      <c r="AG16" s="12"/>
+      <c r="AG16" s="11"/>
       <c r="AH16" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -9399,7 +9398,7 @@
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A17" s="12"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -9423,7 +9422,7 @@
         <f ca="1">'CAC-only better cool'!G17+IF($B17=0.0113,$C$41,$B$41)</f>
         <v>18831.291000000001</v>
       </c>
-      <c r="I17" s="12"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -9447,7 +9446,7 @@
         <f ca="1">'CAC-only better cool'!O17+(IF($J17=0.0113,$C$42,$B$42)/1000)</f>
         <v>1286.7089066000001</v>
       </c>
-      <c r="Q17" s="12"/>
+      <c r="Q17" s="11"/>
       <c r="R17" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -9471,7 +9470,7 @@
         <f ca="1">'CAC-only better cool'!W17+(IF($R17=0.0113,$C$43,$B$43)/1000)</f>
         <v>351.5</v>
       </c>
-      <c r="Y17" s="12"/>
+      <c r="Y17" s="11"/>
       <c r="Z17" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -9495,7 +9494,7 @@
         <f ca="1">'CAC-only comparison'!AE17+(IF($Z17=0.0113,$C$44,$B$44))</f>
         <v>7790.5068792000002</v>
       </c>
-      <c r="AG17" s="12"/>
+      <c r="AG17" s="11"/>
       <c r="AH17" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -9525,65 +9524,65 @@
       </c>
     </row>
     <row r="20" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="I20" s="13" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="I20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="11" t="s">
+      <c r="J20" s="12"/>
+      <c r="K20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="Q20" s="13" t="s">
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="Q20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R20" s="13"/>
-      <c r="S20" s="11" t="s">
+      <c r="R20" s="12"/>
+      <c r="S20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="Y20" s="13" t="s">
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="Y20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="11" t="s">
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AG20" s="13" t="s">
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AG20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="11" t="s">
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="1">
         <v>10</v>
       </c>
@@ -9599,8 +9598,8 @@
       <c r="G21" s="1">
         <v>30</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="1">
         <v>10</v>
       </c>
@@ -9616,8 +9615,8 @@
       <c r="O21" s="1">
         <v>30</v>
       </c>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
       <c r="S21" s="1">
         <v>10</v>
       </c>
@@ -9633,8 +9632,8 @@
       <c r="W21" s="1">
         <v>30</v>
       </c>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
       <c r="AA21" s="1">
         <v>10</v>
       </c>
@@ -9650,8 +9649,8 @@
       <c r="AE21" s="1">
         <v>30</v>
       </c>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
       <c r="AI21" s="1">
         <v>10</v>
       </c>
@@ -9672,7 +9671,7 @@
       </c>
     </row>
     <row r="22" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="1">
@@ -9702,7 +9701,7 @@
         <f>235.5+$C$41</f>
         <v>18379.5</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J22" s="1">
@@ -9732,7 +9731,7 @@
         <f>33+$C$42/1000</f>
         <v>1530</v>
       </c>
-      <c r="Q22" s="12" t="s">
+      <c r="Q22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="R22" s="1">
@@ -9762,7 +9761,7 @@
         <f>13.68+$C$43/1000</f>
         <v>476.08</v>
       </c>
-      <c r="Y22" s="12" t="s">
+      <c r="Y22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="Z22" s="1">
@@ -9792,7 +9791,7 @@
         <f>198+$C$44</f>
         <v>9179</v>
       </c>
-      <c r="AG22" s="12" t="s">
+      <c r="AG22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AH22" s="1">
@@ -9824,7 +9823,7 @@
       </c>
     </row>
     <row r="23" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="12"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -9848,7 +9847,7 @@
         <f ca="1">'CAC-only comparison'!G23+IF($B23=0.0113,$C$41,$B$41)</f>
         <v>18514.891</v>
       </c>
-      <c r="I23" s="12"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -9872,7 +9871,7 @@
         <f ca="1">'CAC-only comparison'!O23+(IF($J23=0.0113,$C$42,$B$42)/1000)</f>
         <v>1286.6248340499999</v>
       </c>
-      <c r="Q23" s="12"/>
+      <c r="Q23" s="11"/>
       <c r="R23" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -9896,7 +9895,7 @@
         <f ca="1">'CAC-only better cool'!W23+(IF($R23=0.0113,$C$43,$B$43)/1000)</f>
         <v>351.5</v>
       </c>
-      <c r="Y23" s="12"/>
+      <c r="Y23" s="11"/>
       <c r="Z23" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -9920,7 +9919,7 @@
         <f ca="1">'CAC-only comparison'!AE23+(IF($Z23=0.0113,$C$44,$B$44))</f>
         <v>7789.4980085999996</v>
       </c>
-      <c r="AG23" s="12"/>
+      <c r="AG23" s="11"/>
       <c r="AH23" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -9946,7 +9945,7 @@
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A24" s="12"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -9970,7 +9969,7 @@
         <f ca="1">'CAC-only comparison'!G24+IF($B24=0.0113,$C$41,$B$41)</f>
         <v>18562.391</v>
       </c>
-      <c r="I24" s="12"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -9994,7 +9993,7 @@
         <f ca="1">'CAC-only comparison'!O24+(IF($J24=0.0113,$C$42,$B$42)/1000)</f>
         <v>1287.625050075</v>
       </c>
-      <c r="Q24" s="12"/>
+      <c r="Q24" s="11"/>
       <c r="R24" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -10018,7 +10017,7 @@
         <f ca="1">'CAC-only better cool'!W24+(IF($R24=0.0113,$C$43,$B$43)/1000)</f>
         <v>351.5</v>
       </c>
-      <c r="Y24" s="12"/>
+      <c r="Y24" s="11"/>
       <c r="Z24" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -10042,7 +10041,7 @@
         <f ca="1">'CAC-only comparison'!AE24+(IF($Z24=0.0113,$C$44,$B$44))</f>
         <v>7801.5006008999999</v>
       </c>
-      <c r="AG24" s="12"/>
+      <c r="AG24" s="11"/>
       <c r="AH24" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -10068,7 +10067,7 @@
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A25" s="12"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -10092,7 +10091,7 @@
         <f ca="1">'CAC-only comparison'!G25+IF($B25=0.0113,$C$41,$B$41)</f>
         <v>18841.991000000002</v>
       </c>
-      <c r="I25" s="12"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -10116,7 +10115,7 @@
         <f ca="1">'CAC-only comparison'!O25+(IF($J25=0.0113,$C$42,$B$42)/1000)</f>
         <v>1286.535883</v>
       </c>
-      <c r="Q25" s="12"/>
+      <c r="Q25" s="11"/>
       <c r="R25" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -10140,7 +10139,7 @@
         <f ca="1">'CAC-only better cool'!W25+(IF($R25=0.0113,$C$43,$B$43)/1000)</f>
         <v>351.5</v>
       </c>
-      <c r="Y25" s="12"/>
+      <c r="Y25" s="11"/>
       <c r="Z25" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -10164,7 +10163,7 @@
         <f ca="1">'CAC-only comparison'!AE25+(IF($Z25=0.0113,$C$44,$B$44))</f>
         <v>7788.4305960000002</v>
       </c>
-      <c r="AG25" s="12"/>
+      <c r="AG25" s="11"/>
       <c r="AH25" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -10193,7 +10192,7 @@
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A26" s="12"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -10217,7 +10216,7 @@
         <f ca="1">'CAC-only comparison'!G26+IF($B26=0.0113,$C$41,$B$41)</f>
         <v>19024.891</v>
       </c>
-      <c r="I26" s="12"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -10241,7 +10240,7 @@
         <f ca="1">'CAC-only comparison'!O26+(IF($J26=0.0113,$C$42,$B$42)/1000)</f>
         <v>1286.1232522</v>
       </c>
-      <c r="Q26" s="12"/>
+      <c r="Q26" s="11"/>
       <c r="R26" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -10265,7 +10264,7 @@
         <f ca="1">'CAC-only better cool'!W26+(IF($R26=0.0113,$C$43,$B$43)/1000)</f>
         <v>351.5</v>
       </c>
-      <c r="Y26" s="12"/>
+      <c r="Y26" s="11"/>
       <c r="Z26" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -10289,7 +10288,7 @@
         <f ca="1">'CAC-only comparison'!AE26+(IF($Z26=0.0113,$C$44,$B$44))</f>
         <v>7783.4790264000003</v>
       </c>
-      <c r="AG26" s="12"/>
+      <c r="AG26" s="11"/>
       <c r="AH26" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -10319,65 +10318,65 @@
       </c>
     </row>
     <row r="29" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="I29" s="13" t="s">
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="I29" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="11" t="s">
+      <c r="J29" s="12"/>
+      <c r="K29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="Q29" s="13" t="s">
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="Q29" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R29" s="13"/>
-      <c r="S29" s="11" t="s">
+      <c r="R29" s="12"/>
+      <c r="S29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="Y29" s="13" t="s">
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="Y29" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="11" t="s">
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
-      <c r="AG29" s="13" t="s">
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AG29" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="11" t="s">
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AJ29" s="11"/>
-      <c r="AK29" s="11"/>
-      <c r="AL29" s="11"/>
-      <c r="AM29" s="11"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="13"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="1">
         <v>10</v>
       </c>
@@ -10393,8 +10392,8 @@
       <c r="G30" s="1">
         <v>30</v>
       </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
       <c r="K30" s="1">
         <v>10</v>
       </c>
@@ -10410,8 +10409,8 @@
       <c r="O30" s="1">
         <v>30</v>
       </c>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
       <c r="S30" s="1">
         <v>10</v>
       </c>
@@ -10427,8 +10426,8 @@
       <c r="W30" s="1">
         <v>30</v>
       </c>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
       <c r="AA30" s="1">
         <v>10</v>
       </c>
@@ -10444,8 +10443,8 @@
       <c r="AE30" s="1">
         <v>30</v>
       </c>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="13"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
       <c r="AI30" s="1">
         <v>10</v>
       </c>
@@ -10466,7 +10465,7 @@
       </c>
     </row>
     <row r="31" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="1">
@@ -10496,7 +10495,7 @@
         <f>235.5+$C$41</f>
         <v>18379.5</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J31" s="1">
@@ -10526,7 +10525,7 @@
         <f>33+$C$42/1000</f>
         <v>1530</v>
       </c>
-      <c r="Q31" s="12" t="s">
+      <c r="Q31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="R31" s="1">
@@ -10556,7 +10555,7 @@
         <f>13.68+$C$43/1000</f>
         <v>476.08</v>
       </c>
-      <c r="Y31" s="12" t="s">
+      <c r="Y31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="Z31" s="1">
@@ -10586,7 +10585,7 @@
         <f>198+$C$44</f>
         <v>9179</v>
       </c>
-      <c r="AG31" s="12" t="s">
+      <c r="AG31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AH31" s="1">
@@ -10618,7 +10617,7 @@
       </c>
     </row>
     <row r="32" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="12"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -10642,7 +10641,7 @@
         <f ca="1">'CAC-only comparison'!G32+IF($B32=0.0113,$C$41,$B$41)</f>
         <v>18403.491000000002</v>
       </c>
-      <c r="I32" s="12"/>
+      <c r="I32" s="11"/>
       <c r="J32" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -10666,7 +10665,7 @@
         <f ca="1">'CAC-only comparison'!O32+(IF($J32=0.0113,$C$42,$B$42)/1000)</f>
         <v>1287.677765525</v>
       </c>
-      <c r="Q32" s="12"/>
+      <c r="Q32" s="11"/>
       <c r="R32" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -10690,7 +10689,7 @@
         <f ca="1">'CAC-only better cool'!W32+(IF($R32=0.0113,$C$43,$B$43)/1000)</f>
         <v>351.5</v>
       </c>
-      <c r="Y32" s="12"/>
+      <c r="Y32" s="11"/>
       <c r="Z32" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -10714,7 +10713,7 @@
         <f ca="1">'CAC-only comparison'!AE32+(IF($Z32=0.0113,$C$44,$B$44))</f>
         <v>7802.1331862999996</v>
       </c>
-      <c r="AG32" s="12"/>
+      <c r="AG32" s="11"/>
       <c r="AH32" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -10740,7 +10739,7 @@
       </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A33" s="12"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -10764,7 +10763,7 @@
         <f ca="1">'CAC-only comparison'!G33+IF($B33=0.0113,$C$41,$B$41)</f>
         <v>18518.190999999999</v>
       </c>
-      <c r="I33" s="12"/>
+      <c r="I33" s="11"/>
       <c r="J33" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -10788,7 +10787,7 @@
         <f ca="1">'CAC-only comparison'!O33+(IF($J33=0.0113,$C$42,$B$42)/1000)</f>
         <v>1288.3619931000001</v>
       </c>
-      <c r="Q33" s="12"/>
+      <c r="Q33" s="11"/>
       <c r="R33" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -10812,7 +10811,7 @@
         <f ca="1">'CAC-only better cool'!W33+(IF($R33=0.0113,$C$43,$B$43)/1000)</f>
         <v>351.5</v>
       </c>
-      <c r="Y33" s="12"/>
+      <c r="Y33" s="11"/>
       <c r="Z33" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -10836,7 +10835,7 @@
         <f ca="1">'CAC-only comparison'!AE33+(IF($Z33=0.0113,$C$44,$B$44))</f>
         <v>7810.3439171999999</v>
       </c>
-      <c r="AG33" s="12"/>
+      <c r="AG33" s="11"/>
       <c r="AH33" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -10862,7 +10861,7 @@
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A34" s="12"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -10886,7 +10885,7 @@
         <f ca="1">'CAC-only comparison'!G34+IF($B34=0.0113,$C$41,$B$41)</f>
         <v>18513.391</v>
       </c>
-      <c r="I34" s="12"/>
+      <c r="I34" s="11"/>
       <c r="J34" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -10910,7 +10909,7 @@
         <f ca="1">'CAC-only comparison'!O34+(IF($J34=0.0113,$C$42,$B$42)/1000)</f>
         <v>1286.9928271250001</v>
       </c>
-      <c r="Q34" s="12"/>
+      <c r="Q34" s="11"/>
       <c r="R34" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -10934,7 +10933,7 @@
         <f ca="1">'CAC-only better cool'!W34+(IF($R34=0.0113,$C$43,$B$43)/1000)</f>
         <v>351.5</v>
       </c>
-      <c r="Y34" s="12"/>
+      <c r="Y34" s="11"/>
       <c r="Z34" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -10958,7 +10957,7 @@
         <f ca="1">'CAC-only comparison'!AE34+(IF($Z34=0.0113,$C$44,$B$44))</f>
         <v>7793.9139255</v>
       </c>
-      <c r="AG34" s="12"/>
+      <c r="AG34" s="11"/>
       <c r="AH34" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -10987,7 +10986,7 @@
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A35" s="12"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -11011,7 +11010,7 @@
         <f ca="1">'CAC-only comparison'!G35+IF($B35=0.0113,$C$41,$B$41)</f>
         <v>18831.291000000001</v>
       </c>
-      <c r="I35" s="12"/>
+      <c r="I35" s="11"/>
       <c r="J35" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -11035,7 +11034,7 @@
         <f ca="1">'CAC-only comparison'!O35+(IF($J35=0.0113,$C$42,$B$42)/1000)</f>
         <v>1286.7089066000001</v>
       </c>
-      <c r="Q35" s="12"/>
+      <c r="Q35" s="11"/>
       <c r="R35" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -11059,7 +11058,7 @@
         <f ca="1">'CAC-only better cool'!W35+(IF($R35=0.0113,$C$43,$B$43)/1000)</f>
         <v>351.5</v>
       </c>
-      <c r="Y35" s="12"/>
+      <c r="Y35" s="11"/>
       <c r="Z35" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -11083,7 +11082,7 @@
         <f ca="1">'CAC-only comparison'!AE35+(IF($Z35=0.0113,$C$44,$B$44))</f>
         <v>7790.5068792000002</v>
       </c>
-      <c r="AG35" s="12"/>
+      <c r="AG35" s="11"/>
       <c r="AH35" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -11166,6 +11165,51 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="Y29:Z30"/>
+    <mergeCell ref="AA29:AE29"/>
+    <mergeCell ref="AG29:AH30"/>
+    <mergeCell ref="AI29:AM29"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="I31:I35"/>
+    <mergeCell ref="Q31:Q35"/>
+    <mergeCell ref="Y31:Y35"/>
+    <mergeCell ref="AG31:AG35"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="K29:O29"/>
+    <mergeCell ref="Q29:R30"/>
+    <mergeCell ref="S29:W29"/>
+    <mergeCell ref="Y20:Z21"/>
+    <mergeCell ref="AA20:AE20"/>
+    <mergeCell ref="AG20:AH21"/>
+    <mergeCell ref="AI20:AM20"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="Q22:Q26"/>
+    <mergeCell ref="Y22:Y26"/>
+    <mergeCell ref="AG22:AG26"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="S20:W20"/>
+    <mergeCell ref="Y11:Z12"/>
+    <mergeCell ref="AA11:AE11"/>
+    <mergeCell ref="AG11:AH12"/>
+    <mergeCell ref="AI11:AM11"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="Y13:Y17"/>
+    <mergeCell ref="AG13:AG17"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="Q11:R12"/>
+    <mergeCell ref="S11:W11"/>
     <mergeCell ref="Y2:Z3"/>
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AG2:AH3"/>
@@ -11181,51 +11225,6 @@
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:R3"/>
     <mergeCell ref="S2:W2"/>
-    <mergeCell ref="Y11:Z12"/>
-    <mergeCell ref="AA11:AE11"/>
-    <mergeCell ref="AG11:AH12"/>
-    <mergeCell ref="AI11:AM11"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="I13:I17"/>
-    <mergeCell ref="Q13:Q17"/>
-    <mergeCell ref="Y13:Y17"/>
-    <mergeCell ref="AG13:AG17"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="Q11:R12"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="Y20:Z21"/>
-    <mergeCell ref="AA20:AE20"/>
-    <mergeCell ref="AG20:AH21"/>
-    <mergeCell ref="AI20:AM20"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="I22:I26"/>
-    <mergeCell ref="Q22:Q26"/>
-    <mergeCell ref="Y22:Y26"/>
-    <mergeCell ref="AG22:AG26"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="Y29:Z30"/>
-    <mergeCell ref="AA29:AE29"/>
-    <mergeCell ref="AG29:AH30"/>
-    <mergeCell ref="AI29:AM29"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="I31:I35"/>
-    <mergeCell ref="Q31:Q35"/>
-    <mergeCell ref="Y31:Y35"/>
-    <mergeCell ref="AG31:AG35"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="I29:J30"/>
-    <mergeCell ref="K29:O29"/>
-    <mergeCell ref="Q29:R30"/>
-    <mergeCell ref="S29:W29"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:G8">
     <cfRule type="colorScale" priority="20">
@@ -12175,7 +12174,7 @@
         <v>11</v>
       </c>
       <c r="Z23">
-        <f t="shared" ref="Z22:Z31" si="2">R23*0.121+S23*0.149</f>
+        <f t="shared" ref="Z23:Z31" si="2">R23*0.121+S23*0.149</f>
         <v>3839.0060296000001</v>
       </c>
     </row>
@@ -12788,7 +12787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493D61B3-7ED8-47A6-8330-F1BEC507C369}">
   <dimension ref="A2:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -30429,76 +30428,76 @@
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="I2" s="13" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="11" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="Q2" s="13" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="Q2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="11" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="Y2" s="13" t="s">
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="Y2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="11" t="s">
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AG2" s="13" t="s">
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AG2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="11" t="s">
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AP2" s="13" t="s">
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AP2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="11" t="s">
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="13"/>
     </row>
     <row r="3" spans="1:50" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="1">
         <v>10</v>
       </c>
@@ -30517,8 +30516,8 @@
       <c r="H3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
       <c r="K3" s="1">
         <v>10</v>
       </c>
@@ -30537,8 +30536,8 @@
       <c r="P3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
       <c r="S3" s="1">
         <v>10</v>
       </c>
@@ -30557,8 +30556,8 @@
       <c r="X3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
       <c r="AA3" s="1">
         <v>10</v>
       </c>
@@ -30577,8 +30576,8 @@
       <c r="AF3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
       <c r="AI3" s="1">
         <v>10</v>
       </c>
@@ -30597,8 +30596,8 @@
       <c r="AN3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
       <c r="AR3" s="1">
         <v>10</v>
       </c>
@@ -30619,7 +30618,7 @@
       </c>
     </row>
     <row r="4" spans="1:50" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="1">
@@ -30648,7 +30647,7 @@
       <c r="H4">
         <v>279</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J4" s="1">
@@ -30677,7 +30676,7 @@
       <c r="P4" s="2">
         <v>32.94</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="R4" s="1">
@@ -30706,7 +30705,7 @@
       <c r="X4" s="5">
         <v>12.72</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Y4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="Z4" s="1">
@@ -30735,7 +30734,7 @@
       <c r="AF4" s="2">
         <v>198</v>
       </c>
-      <c r="AG4" s="12" t="s">
+      <c r="AG4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AH4" s="1">
@@ -30764,7 +30763,7 @@
       <c r="AN4" s="2">
         <v>1460.2</v>
       </c>
-      <c r="AP4" s="12" t="s">
+      <c r="AP4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AQ4" s="1">
@@ -30796,7 +30795,7 @@
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -30820,7 +30819,7 @@
         <f t="array" aca="1" ref="G5" ca="1">_xlfn.XLOOKUP($B5&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$D$4:$D$28)</f>
         <v>378.59100000000001</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -30844,7 +30843,7 @@
         <f t="array" aca="1" ref="O5" ca="1">_xlfn.XLOOKUP($B5&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$E$4:$E$28)/1000</f>
         <v>11.4857402</v>
       </c>
-      <c r="Q5" s="12"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -30868,7 +30867,7 @@
         <f t="array" aca="1" ref="W5" ca="1">_xlfn.XLOOKUP($B5&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$F$4:$F$28)/1000</f>
         <v>19.2017475</v>
       </c>
-      <c r="Y5" s="12"/>
+      <c r="Y5" s="11"/>
       <c r="Z5" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -30892,7 +30891,7 @@
         <f t="array" aca="1" ref="AE5" ca="1">_xlfn.XLOOKUP($B5&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$G$4:$G$28)/1000</f>
         <v>137.8288824</v>
       </c>
-      <c r="AG5" s="12"/>
+      <c r="AG5" s="11"/>
       <c r="AH5" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -30916,7 +30915,7 @@
         <f t="array" aca="1" ref="AM5" ca="1">_xlfn.XLOOKUP($B5&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$H$4:$H$28)/1000</f>
         <v>496.18397664000003</v>
       </c>
-      <c r="AP5" s="12"/>
+      <c r="AP5" s="11"/>
       <c r="AQ5" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -30943,7 +30942,7 @@
       <c r="AX5" s="3"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -30967,7 +30966,7 @@
         <f t="array" aca="1" ref="G6" ca="1">_xlfn.XLOOKUP($B6&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$D$4:$D$28)</f>
         <v>446.69100000000003</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -30991,7 +30990,7 @@
         <f t="array" aca="1" ref="O6" ca="1">_xlfn.XLOOKUP($B6&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$E$4:$E$28)/1000</f>
         <v>12.55947595</v>
       </c>
-      <c r="Q6" s="12"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -31015,7 +31014,7 @@
         <f t="array" aca="1" ref="W6" ca="1">_xlfn.XLOOKUP($B6&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$F$4:$F$28)/1000</f>
         <v>27.753526300000001</v>
       </c>
-      <c r="Y6" s="12"/>
+      <c r="Y6" s="11"/>
       <c r="Z6" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -31039,7 +31038,7 @@
         <f t="array" aca="1" ref="AE6" ca="1">_xlfn.XLOOKUP($B6&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$G$4:$G$28)/1000</f>
         <v>150.71371139999999</v>
       </c>
-      <c r="AG6" s="12"/>
+      <c r="AG6" s="11"/>
       <c r="AH6" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -31063,7 +31062,7 @@
         <f t="array" aca="1" ref="AM6" ca="1">_xlfn.XLOOKUP($B6&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$H$4:$H$28)/1000</f>
         <v>481.41026352</v>
       </c>
-      <c r="AP6" s="12"/>
+      <c r="AP6" s="11"/>
       <c r="AQ6" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -31089,7 +31088,7 @@
       </c>
     </row>
     <row r="7" spans="1:50" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -31113,7 +31112,7 @@
         <f t="array" aca="1" ref="G7" ca="1">_xlfn.XLOOKUP($B7&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$D$4:$D$28)</f>
         <v>731.49099999999999</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -31137,7 +31136,7 @@
         <f t="array" aca="1" ref="O7" ca="1">_xlfn.XLOOKUP($B7&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$E$4:$E$28)/1000</f>
         <v>11.574680075000002</v>
       </c>
-      <c r="Q7" s="12"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -31161,7 +31160,7 @@
         <f t="array" aca="1" ref="W7" ca="1">_xlfn.XLOOKUP($B7&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$F$4:$F$28)/1000</f>
         <v>37.4681432</v>
       </c>
-      <c r="Y7" s="12"/>
+      <c r="Y7" s="11"/>
       <c r="Z7" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -31185,7 +31184,7 @@
         <f t="array" aca="1" ref="AE7" ca="1">_xlfn.XLOOKUP($B7&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$G$4:$G$28)/1000</f>
         <v>138.89616090000001</v>
       </c>
-      <c r="AG7" s="12"/>
+      <c r="AG7" s="11"/>
       <c r="AH7" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -31209,7 +31208,7 @@
         <f t="array" aca="1" ref="AM7" ca="1">_xlfn.XLOOKUP($B7&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$H$4:$H$28)/1000</f>
         <v>500.02617924000009</v>
       </c>
-      <c r="AP7" s="12"/>
+      <c r="AP7" s="11"/>
       <c r="AQ7" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -31238,7 +31237,7 @@
       </c>
     </row>
     <row r="8" spans="1:50" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="12"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -31262,7 +31261,7 @@
         <f t="array" aca="1" ref="G8" ca="1">_xlfn.XLOOKUP($B8&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$D$4:$D$28)</f>
         <v>874.79099999999994</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -31286,7 +31285,7 @@
         <f t="array" aca="1" ref="O8" ca="1">_xlfn.XLOOKUP($B8&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$E$4:$E$28)/1000</f>
         <v>11.077354825</v>
       </c>
-      <c r="Q8" s="12"/>
+      <c r="Q8" s="11"/>
       <c r="R8" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -31310,7 +31309,7 @@
         <f t="array" aca="1" ref="W8" ca="1">_xlfn.XLOOKUP($B8&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$F$4:$F$28)/1000</f>
         <v>72.353091899999995</v>
       </c>
-      <c r="Y8" s="12"/>
+      <c r="Y8" s="11"/>
       <c r="Z8" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -31334,7 +31333,7 @@
         <f t="array" aca="1" ref="AE8" ca="1">_xlfn.XLOOKUP($B8&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$G$4:$G$28)/1000</f>
         <v>132.92825790000001</v>
       </c>
-      <c r="AG8" s="12"/>
+      <c r="AG8" s="11"/>
       <c r="AH8" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -31358,7 +31357,7 @@
         <f t="array" aca="1" ref="AM8" ca="1">_xlfn.XLOOKUP($B8&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$H$4:$H$28)/1000</f>
         <v>478.54172843999999</v>
       </c>
-      <c r="AP8" s="12"/>
+      <c r="AP8" s="11"/>
       <c r="AQ8" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -31393,22 +31392,22 @@
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="13"/>
+      <c r="J11" s="12"/>
       <c r="K11" s="1" t="s">
         <v>43</v>
       </c>
@@ -31417,56 +31416,56 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="11" t="s">
+      <c r="R11" s="12"/>
+      <c r="S11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="13" t="s">
+      <c r="Y11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="11" t="s">
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="13" t="s">
+      <c r="AG11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="11" t="s">
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="11"/>
-      <c r="AM11" s="11"/>
-      <c r="AP11" s="13" t="s">
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AP11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="11" t="s">
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AS11" s="11"/>
-      <c r="AT11" s="11"/>
-      <c r="AU11" s="11"/>
-      <c r="AV11" s="11"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
     </row>
     <row r="12" spans="1:50" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="1">
         <v>10</v>
       </c>
@@ -31485,8 +31484,8 @@
       <c r="H12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
@@ -31505,8 +31504,8 @@
       <c r="P12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
       <c r="S12" s="1">
         <v>10</v>
       </c>
@@ -31525,8 +31524,8 @@
       <c r="X12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
       <c r="AA12" s="1">
         <v>10</v>
       </c>
@@ -31545,8 +31544,8 @@
       <c r="AF12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
       <c r="AI12" s="1">
         <v>10</v>
       </c>
@@ -31565,8 +31564,8 @@
       <c r="AN12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="13"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
       <c r="AR12" s="1">
         <v>10</v>
       </c>
@@ -31587,7 +31586,7 @@
       </c>
     </row>
     <row r="13" spans="1:50" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="1">
@@ -31616,7 +31615,7 @@
       <c r="H13">
         <v>279</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J13" s="1">
@@ -31645,7 +31644,7 @@
       <c r="P13" s="2">
         <v>32.94</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="R13" s="1">
@@ -31674,7 +31673,7 @@
       <c r="X13" s="5">
         <v>12.72</v>
       </c>
-      <c r="Y13" s="12" t="s">
+      <c r="Y13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="Z13" s="1">
@@ -31703,7 +31702,7 @@
       <c r="AF13" s="2">
         <v>198</v>
       </c>
-      <c r="AG13" s="12" t="s">
+      <c r="AG13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AH13" s="1">
@@ -31732,7 +31731,7 @@
       <c r="AN13" s="2">
         <v>1460.2</v>
       </c>
-      <c r="AP13" s="12" t="s">
+      <c r="AP13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AQ13" s="1">
@@ -31764,7 +31763,7 @@
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="A14" s="12"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -31788,7 +31787,7 @@
         <f t="array" aca="1" ref="G14" ca="1">_xlfn.XLOOKUP($B14&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$J$4:$J$28)</f>
         <v>276.69100000000003</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -31812,7 +31811,7 @@
         <f t="array" aca="1" ref="O14" ca="1">_xlfn.XLOOKUP($B14&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$K$4:$K$28)/1000</f>
         <v>12.326034200000002</v>
       </c>
-      <c r="Q14" s="12"/>
+      <c r="Q14" s="11"/>
       <c r="R14" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -31836,7 +31835,7 @@
         <f t="array" aca="1" ref="W14" ca="1">_xlfn.XLOOKUP($B14&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$L$4:$L$28)/1000</f>
         <v>20.021658200000001</v>
       </c>
-      <c r="Y14" s="12"/>
+      <c r="Y14" s="11"/>
       <c r="Z14" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -31860,7 +31859,7 @@
         <f t="array" aca="1" ref="AE14" ca="1">_xlfn.XLOOKUP($B14&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$M$4:$M$28)/1000</f>
         <v>147.91241040000003</v>
       </c>
-      <c r="AG14" s="12"/>
+      <c r="AG14" s="11"/>
       <c r="AH14" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -31884,7 +31883,7 @@
         <f t="array" aca="1" ref="AM14" ca="1">_xlfn.XLOOKUP($B14&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$N$4:$N$28)/1000</f>
         <v>532.48467744000016</v>
       </c>
-      <c r="AP14" s="12"/>
+      <c r="AP14" s="11"/>
       <c r="AQ14" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -31910,7 +31909,7 @@
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="A15" s="12"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -31934,7 +31933,7 @@
         <f t="array" aca="1" ref="G15" ca="1">_xlfn.XLOOKUP($B15&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$J$4:$J$28)</f>
         <v>407.69100000000003</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -31958,7 +31957,7 @@
         <f t="array" aca="1" ref="O15" ca="1">_xlfn.XLOOKUP($B15&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$K$4:$K$28)/1000</f>
         <v>13.193551075000002</v>
       </c>
-      <c r="Q15" s="12"/>
+      <c r="Q15" s="11"/>
       <c r="R15" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -31982,7 +31981,7 @@
         <f t="array" aca="1" ref="W15" ca="1">_xlfn.XLOOKUP($B15&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$L$4:$L$28)/1000</f>
         <v>28.511105999999998</v>
       </c>
-      <c r="Y15" s="12"/>
+      <c r="Y15" s="11"/>
       <c r="Z15" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -32006,7 +32005,7 @@
         <f t="array" aca="1" ref="AE15" ca="1">_xlfn.XLOOKUP($B15&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$M$4:$M$28)/1000</f>
         <v>158.3226129</v>
       </c>
-      <c r="AG15" s="12"/>
+      <c r="AG15" s="11"/>
       <c r="AH15" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -32030,7 +32029,7 @@
         <f t="array" aca="1" ref="AM15" ca="1">_xlfn.XLOOKUP($B15&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$N$4:$N$28)/1000</f>
         <v>506.10272616000003</v>
       </c>
-      <c r="AP15" s="12"/>
+      <c r="AP15" s="11"/>
       <c r="AQ15" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -32056,7 +32055,7 @@
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="A16" s="12"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -32080,7 +32079,7 @@
         <f t="array" aca="1" ref="G16" ca="1">_xlfn.XLOOKUP($B16&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$J$4:$J$28)</f>
         <v>417.291</v>
       </c>
-      <c r="I16" s="12"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -32104,7 +32103,7 @@
         <f t="array" aca="1" ref="O16" ca="1">_xlfn.XLOOKUP($B16&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$K$4:$K$28)/1000</f>
         <v>12.226434000000001</v>
       </c>
-      <c r="Q16" s="12"/>
+      <c r="Q16" s="11"/>
       <c r="R16" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -32128,7 +32127,7 @@
         <f t="array" aca="1" ref="W16" ca="1">_xlfn.XLOOKUP($B16&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$L$4:$L$28)/1000</f>
         <v>38.802586300000002</v>
       </c>
-      <c r="Y16" s="12"/>
+      <c r="Y16" s="11"/>
       <c r="Z16" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -32152,7 +32151,7 @@
         <f t="array" aca="1" ref="AE16" ca="1">_xlfn.XLOOKUP($B16&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$M$4:$M$28)/1000</f>
         <v>146.717208</v>
       </c>
-      <c r="AG16" s="12"/>
+      <c r="AG16" s="11"/>
       <c r="AH16" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -32176,7 +32175,7 @@
         <f t="array" aca="1" ref="AM16" ca="1">_xlfn.XLOOKUP($B16&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$N$4:$N$28)/1000</f>
         <v>528.18194879999999</v>
       </c>
-      <c r="AP16" s="12"/>
+      <c r="AP16" s="11"/>
       <c r="AQ16" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -32205,7 +32204,7 @@
       </c>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A17" s="12"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -32229,7 +32228,7 @@
         <f t="array" aca="1" ref="G17" ca="1">_xlfn.XLOOKUP($B17&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$J$4:$J$28)</f>
         <v>687.29099999999994</v>
       </c>
-      <c r="I17" s="12"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -32253,7 +32252,7 @@
         <f t="array" aca="1" ref="O17" ca="1">_xlfn.XLOOKUP($B17&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$K$4:$K$28)/1000</f>
         <v>11.708906600000001</v>
       </c>
-      <c r="Q17" s="12"/>
+      <c r="Q17" s="11"/>
       <c r="R17" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -32277,7 +32276,7 @@
         <f t="array" aca="1" ref="W17" ca="1">_xlfn.XLOOKUP($B17&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$L$4:$L$28)/1000</f>
         <v>74.860642200000001</v>
       </c>
-      <c r="Y17" s="12"/>
+      <c r="Y17" s="11"/>
       <c r="Z17" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -32301,7 +32300,7 @@
         <f t="array" aca="1" ref="AE17" ca="1">_xlfn.XLOOKUP($B17&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$M$4:$M$28)/1000</f>
         <v>140.50687919999999</v>
       </c>
-      <c r="AG17" s="12"/>
+      <c r="AG17" s="11"/>
       <c r="AH17" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -32325,7 +32324,7 @@
         <f t="array" aca="1" ref="AM17" ca="1">_xlfn.XLOOKUP($B17&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$N$4:$N$28)/1000</f>
         <v>505.82476512</v>
       </c>
-      <c r="AP17" s="12"/>
+      <c r="AP17" s="11"/>
       <c r="AQ17" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -32360,22 +32359,22 @@
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="13"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="1" t="s">
         <v>43</v>
       </c>
@@ -32384,56 +32383,56 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="13" t="s">
+      <c r="Q20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R20" s="13"/>
-      <c r="S20" s="11" t="s">
+      <c r="R20" s="12"/>
+      <c r="S20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="13" t="s">
+      <c r="Y20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="11" t="s">
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
       <c r="AF20" s="1"/>
-      <c r="AG20" s="13" t="s">
+      <c r="AG20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="11" t="s">
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
-      <c r="AP20" s="13" t="s">
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
+      <c r="AP20" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="11" t="s">
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="13"/>
     </row>
     <row r="21" spans="1:51" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="1">
         <v>10</v>
       </c>
@@ -32452,8 +32451,8 @@
       <c r="H21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="1">
         <v>10</v>
       </c>
@@ -32472,8 +32471,8 @@
       <c r="P21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
       <c r="S21" s="1">
         <v>10</v>
       </c>
@@ -32492,8 +32491,8 @@
       <c r="X21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
       <c r="AA21" s="1">
         <v>10</v>
       </c>
@@ -32512,8 +32511,8 @@
       <c r="AF21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
       <c r="AI21" s="1">
         <v>10</v>
       </c>
@@ -32532,8 +32531,8 @@
       <c r="AN21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AP21" s="13"/>
-      <c r="AQ21" s="13"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
       <c r="AR21" s="1">
         <v>10</v>
       </c>
@@ -32554,7 +32553,7 @@
       </c>
     </row>
     <row r="22" spans="1:51" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="1">
@@ -32583,7 +32582,7 @@
       <c r="H22">
         <v>279</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J22" s="1">
@@ -32612,7 +32611,7 @@
       <c r="P22" s="2">
         <v>32.94</v>
       </c>
-      <c r="Q22" s="12" t="s">
+      <c r="Q22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="R22" s="1">
@@ -32641,7 +32640,7 @@
       <c r="X22" s="5">
         <v>12.72</v>
       </c>
-      <c r="Y22" s="12" t="s">
+      <c r="Y22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="Z22" s="1">
@@ -32670,7 +32669,7 @@
       <c r="AF22" s="2">
         <v>198</v>
       </c>
-      <c r="AG22" s="12" t="s">
+      <c r="AG22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AH22" s="1">
@@ -32699,7 +32698,7 @@
       <c r="AN22" s="2">
         <v>1460.2</v>
       </c>
-      <c r="AP22" s="12" t="s">
+      <c r="AP22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AQ22" s="1">
@@ -32731,7 +32730,7 @@
       </c>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A23" s="12"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -32755,7 +32754,7 @@
         <f t="array" aca="1" ref="G23" ca="1">_xlfn.XLOOKUP($B23&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$P$4:$P$28)</f>
         <v>370.89100000000002</v>
       </c>
-      <c r="I23" s="12"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -32779,7 +32778,7 @@
         <f t="array" aca="1" ref="O23" ca="1">_xlfn.XLOOKUP($B23&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$Q$4:$Q$28)/1000</f>
         <v>11.624834049999999</v>
       </c>
-      <c r="Q23" s="12"/>
+      <c r="Q23" s="11"/>
       <c r="R23" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -32803,7 +32802,7 @@
         <f t="array" aca="1" ref="W23" ca="1">_xlfn.XLOOKUP($B23&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$R$4:$R$28)/1000</f>
         <v>19.335615300000001</v>
       </c>
-      <c r="Y23" s="12"/>
+      <c r="Y23" s="11"/>
       <c r="Z23" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -32827,7 +32826,7 @@
         <f t="array" aca="1" ref="AE23" ca="1">_xlfn.XLOOKUP($B23&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$S$4:$S$28)/1000</f>
         <v>139.49800859999999</v>
       </c>
-      <c r="AG23" s="12"/>
+      <c r="AG23" s="11"/>
       <c r="AH23" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -32851,7 +32850,7 @@
         <f t="array" aca="1" ref="AM23" ca="1">_xlfn.XLOOKUP($B23&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$T$4:$T$28)/1000</f>
         <v>502.19283095999998</v>
       </c>
-      <c r="AP23" s="12"/>
+      <c r="AP23" s="11"/>
       <c r="AQ23" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -32877,7 +32876,7 @@
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A24" s="12"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -32901,7 +32900,7 @@
         <f t="array" aca="1" ref="G24" ca="1">_xlfn.XLOOKUP($B24&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$P$4:$P$28)</f>
         <v>418.39100000000002</v>
       </c>
-      <c r="I24" s="12"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -32925,7 +32924,7 @@
         <f t="array" aca="1" ref="O24" ca="1">_xlfn.XLOOKUP($B24&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$Q$4:$Q$28)/1000</f>
         <v>12.625050075000001</v>
       </c>
-      <c r="Q24" s="12"/>
+      <c r="Q24" s="11"/>
       <c r="R24" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -32949,7 +32948,7 @@
         <f t="array" aca="1" ref="W24" ca="1">_xlfn.XLOOKUP($B24&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$R$4:$R$28)/1000</f>
         <v>27.831039499999999</v>
       </c>
-      <c r="Y24" s="12"/>
+      <c r="Y24" s="11"/>
       <c r="Z24" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -32973,7 +32972,7 @@
         <f t="array" aca="1" ref="AE24" ca="1">_xlfn.XLOOKUP($B24&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$S$4:$S$28)/1000</f>
         <v>151.50060090000002</v>
       </c>
-      <c r="AG24" s="12"/>
+      <c r="AG24" s="11"/>
       <c r="AH24" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -32997,7 +32996,7 @@
         <f t="array" aca="1" ref="AM24" ca="1">_xlfn.XLOOKUP($B24&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$T$4:$T$28)/1000</f>
         <v>483.93104543999999</v>
       </c>
-      <c r="AP24" s="12"/>
+      <c r="AP24" s="11"/>
       <c r="AQ24" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -33023,7 +33022,7 @@
       </c>
     </row>
     <row r="25" spans="1:51" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="12"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -33047,7 +33046,7 @@
         <f t="array" aca="1" ref="G25" ca="1">_xlfn.XLOOKUP($B25&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$P$4:$P$28)</f>
         <v>697.99099999999999</v>
       </c>
-      <c r="I25" s="12"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -33071,7 +33070,7 @@
         <f t="array" aca="1" ref="O25" ca="1">_xlfn.XLOOKUP($B25&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$Q$4:$Q$28)/1000</f>
         <v>11.535883</v>
       </c>
-      <c r="Q25" s="12"/>
+      <c r="Q25" s="11"/>
       <c r="R25" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -33095,7 +33094,7 @@
         <f t="array" aca="1" ref="W25" ca="1">_xlfn.XLOOKUP($B25&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$R$4:$R$28)/1000</f>
         <v>37.341797800000002</v>
       </c>
-      <c r="Y25" s="12"/>
+      <c r="Y25" s="11"/>
       <c r="Z25" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -33119,7 +33118,7 @@
         <f t="array" aca="1" ref="AE25" ca="1">_xlfn.XLOOKUP($B25&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$S$4:$S$28)/1000</f>
         <v>138.43059599999998</v>
       </c>
-      <c r="AG25" s="12"/>
+      <c r="AG25" s="11"/>
       <c r="AH25" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -33143,7 +33142,7 @@
         <f t="array" aca="1" ref="AM25" ca="1">_xlfn.XLOOKUP($B25&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$T$4:$T$28)/1000</f>
         <v>498.35014559999996</v>
       </c>
-      <c r="AP25" s="12"/>
+      <c r="AP25" s="11"/>
       <c r="AQ25" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -33172,7 +33171,7 @@
       </c>
     </row>
     <row r="26" spans="1:51" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="12"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -33196,7 +33195,7 @@
         <f t="array" aca="1" ref="G26" ca="1">_xlfn.XLOOKUP($B26&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$P$4:$P$28)</f>
         <v>880.89099999999996</v>
       </c>
-      <c r="I26" s="12"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -33220,7 +33219,7 @@
         <f t="array" aca="1" ref="O26" ca="1">_xlfn.XLOOKUP($B26&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$Q$4:$Q$28)/1000</f>
         <v>11.123252200000001</v>
       </c>
-      <c r="Q26" s="12"/>
+      <c r="Q26" s="11"/>
       <c r="R26" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -33244,7 +33243,7 @@
         <f t="array" aca="1" ref="W26" ca="1">_xlfn.XLOOKUP($B26&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$R$4:$R$28)/1000</f>
         <v>72.527081499999994</v>
       </c>
-      <c r="Y26" s="12"/>
+      <c r="Y26" s="11"/>
       <c r="Z26" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -33268,7 +33267,7 @@
         <f t="array" aca="1" ref="AE26" ca="1">_xlfn.XLOOKUP($B26&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$S$4:$S$28)/1000</f>
         <v>133.47902640000001</v>
       </c>
-      <c r="AG26" s="12"/>
+      <c r="AG26" s="11"/>
       <c r="AH26" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -33292,7 +33291,7 @@
         <f t="array" aca="1" ref="AM26" ca="1">_xlfn.XLOOKUP($B26&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$T$4:$T$28)/1000</f>
         <v>480.52449504000003</v>
       </c>
-      <c r="AP26" s="12"/>
+      <c r="AP26" s="11"/>
       <c r="AQ26" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -33327,22 +33326,22 @@
       </c>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J29" s="13"/>
+      <c r="J29" s="12"/>
       <c r="K29" s="1" t="s">
         <v>43</v>
       </c>
@@ -33351,56 +33350,56 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="13" t="s">
+      <c r="Q29" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R29" s="13"/>
-      <c r="S29" s="11" t="s">
+      <c r="R29" s="12"/>
+      <c r="S29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
       <c r="X29" s="1"/>
-      <c r="Y29" s="13" t="s">
+      <c r="Y29" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="11" t="s">
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
       <c r="AF29" s="1"/>
-      <c r="AG29" s="13" t="s">
+      <c r="AG29" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="11" t="s">
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AJ29" s="11"/>
-      <c r="AK29" s="11"/>
-      <c r="AL29" s="11"/>
-      <c r="AM29" s="11"/>
-      <c r="AP29" s="13" t="s">
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="13"/>
+      <c r="AP29" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AQ29" s="13"/>
-      <c r="AR29" s="11" t="s">
+      <c r="AQ29" s="12"/>
+      <c r="AR29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AS29" s="11"/>
-      <c r="AT29" s="11"/>
-      <c r="AU29" s="11"/>
-      <c r="AV29" s="11"/>
+      <c r="AS29" s="13"/>
+      <c r="AT29" s="13"/>
+      <c r="AU29" s="13"/>
+      <c r="AV29" s="13"/>
     </row>
     <row r="30" spans="1:51" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="1">
         <v>10</v>
       </c>
@@ -33419,8 +33418,8 @@
       <c r="H30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
       <c r="K30" s="1">
         <v>10</v>
       </c>
@@ -33439,8 +33438,8 @@
       <c r="P30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
       <c r="S30" s="1">
         <v>10</v>
       </c>
@@ -33459,8 +33458,8 @@
       <c r="X30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
       <c r="AA30" s="1">
         <v>10</v>
       </c>
@@ -33479,8 +33478,8 @@
       <c r="AF30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="13"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
       <c r="AI30" s="1">
         <v>10</v>
       </c>
@@ -33499,8 +33498,8 @@
       <c r="AN30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AP30" s="13"/>
-      <c r="AQ30" s="13"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="12"/>
       <c r="AR30" s="1">
         <v>10</v>
       </c>
@@ -33521,7 +33520,7 @@
       </c>
     </row>
     <row r="31" spans="1:51" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="1">
@@ -33550,7 +33549,7 @@
       <c r="H31">
         <v>279</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J31" s="1">
@@ -33579,7 +33578,7 @@
       <c r="P31" s="2">
         <v>32.94</v>
       </c>
-      <c r="Q31" s="12" t="s">
+      <c r="Q31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="R31" s="1">
@@ -33608,7 +33607,7 @@
       <c r="X31" s="5">
         <v>12.72</v>
       </c>
-      <c r="Y31" s="12" t="s">
+      <c r="Y31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="Z31" s="1">
@@ -33637,7 +33636,7 @@
       <c r="AF31" s="2">
         <v>198</v>
       </c>
-      <c r="AG31" s="12" t="s">
+      <c r="AG31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AH31" s="1">
@@ -33666,7 +33665,7 @@
       <c r="AN31" s="2">
         <v>1460.2</v>
       </c>
-      <c r="AP31" s="12" t="s">
+      <c r="AP31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AQ31" s="1">
@@ -33698,7 +33697,7 @@
       </c>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A32" s="12"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -33722,7 +33721,7 @@
         <f t="array" aca="1" ref="G32" ca="1">_xlfn.XLOOKUP($B32&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$V$4:$V$28)</f>
         <v>259.49100000000004</v>
       </c>
-      <c r="I32" s="12"/>
+      <c r="I32" s="11"/>
       <c r="J32" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -33746,7 +33745,7 @@
         <f t="array" aca="1" ref="O32" ca="1">_xlfn.XLOOKUP($B32&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$W$4:$W$28)/1000</f>
         <v>12.677765525</v>
       </c>
-      <c r="Q32" s="12"/>
+      <c r="Q32" s="11"/>
       <c r="R32" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -33770,7 +33769,7 @@
         <f t="array" aca="1" ref="W32" ca="1">_xlfn.XLOOKUP($B32&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$X$4:$X$28)/1000</f>
         <v>20.446281599999999</v>
       </c>
-      <c r="Y32" s="12"/>
+      <c r="Y32" s="11"/>
       <c r="Z32" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -33794,7 +33793,7 @@
         <f t="array" aca="1" ref="AE32" ca="1">_xlfn.XLOOKUP($B32&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$Y$4:$Y$28)/1000</f>
         <v>152.13318630000001</v>
       </c>
-      <c r="AG32" s="12"/>
+      <c r="AG32" s="11"/>
       <c r="AH32" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -33818,7 +33817,7 @@
         <f t="array" aca="1" ref="AM32" ca="1">_xlfn.XLOOKUP($B32&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$Z$4:$Z$28)/1000</f>
         <v>547.67947068000001</v>
       </c>
-      <c r="AP32" s="12"/>
+      <c r="AP32" s="11"/>
       <c r="AQ32" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -33848,7 +33847,7 @@
       </c>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A33" s="12"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -33872,7 +33871,7 @@
         <f t="array" aca="1" ref="G33" ca="1">_xlfn.XLOOKUP($B33&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$V$4:$V$28)</f>
         <v>374.19100000000003</v>
       </c>
-      <c r="I33" s="12"/>
+      <c r="I33" s="11"/>
       <c r="J33" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -33896,7 +33895,7 @@
         <f t="array" aca="1" ref="O33" ca="1">_xlfn.XLOOKUP($B33&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$W$4:$W$28)/1000</f>
         <v>13.361993099999999</v>
       </c>
-      <c r="Q33" s="12"/>
+      <c r="Q33" s="11"/>
       <c r="R33" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -33920,7 +33919,7 @@
         <f t="array" aca="1" ref="W33" ca="1">_xlfn.XLOOKUP($B33&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$X$4:$X$28)/1000</f>
         <v>28.736602299999998</v>
       </c>
-      <c r="Y33" s="12"/>
+      <c r="Y33" s="11"/>
       <c r="Z33" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -33944,7 +33943,7 @@
         <f t="array" aca="1" ref="AE33" ca="1">_xlfn.XLOOKUP($B33&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$Y$4:$Y$28)/1000</f>
         <v>160.34391719999999</v>
       </c>
-      <c r="AG33" s="12"/>
+      <c r="AG33" s="11"/>
       <c r="AH33" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -33968,7 +33967,7 @@
         <f t="array" aca="1" ref="AM33" ca="1">_xlfn.XLOOKUP($B33&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$Z$4:$Z$28)/1000</f>
         <v>512.57128067999986</v>
       </c>
-      <c r="AP33" s="12"/>
+      <c r="AP33" s="11"/>
       <c r="AQ33" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -33994,7 +33993,7 @@
       </c>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A34" s="12"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -34018,7 +34017,7 @@
         <f t="array" aca="1" ref="G34" ca="1">_xlfn.XLOOKUP($B34&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$V$4:$V$28)</f>
         <v>369.39100000000002</v>
       </c>
-      <c r="I34" s="12"/>
+      <c r="I34" s="11"/>
       <c r="J34" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -34042,7 +34041,7 @@
         <f t="array" aca="1" ref="O34" ca="1">_xlfn.XLOOKUP($B34&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$W$4:$W$28)/1000</f>
         <v>11.992827125000002</v>
       </c>
-      <c r="Q34" s="12"/>
+      <c r="Q34" s="11"/>
       <c r="R34" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -34066,7 +34065,7 @@
         <f t="array" aca="1" ref="W34" ca="1">_xlfn.XLOOKUP($B34&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$X$4:$X$28)/1000</f>
         <v>38.268800799999994</v>
       </c>
-      <c r="Y34" s="12"/>
+      <c r="Y34" s="11"/>
       <c r="Z34" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -34090,7 +34089,7 @@
         <f t="array" aca="1" ref="AE34" ca="1">_xlfn.XLOOKUP($B34&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$Y$4:$Y$28)/1000</f>
         <v>143.9139255</v>
       </c>
-      <c r="AG34" s="12"/>
+      <c r="AG34" s="11"/>
       <c r="AH34" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -34114,7 +34113,7 @@
         <f t="array" aca="1" ref="AM34" ca="1">_xlfn.XLOOKUP($B34&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$Z$4:$Z$28)/1000</f>
         <v>518.09013179999999</v>
       </c>
-      <c r="AP34" s="12"/>
+      <c r="AP34" s="11"/>
       <c r="AQ34" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -34143,7 +34142,7 @@
       </c>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A35" s="12"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -34167,7 +34166,7 @@
         <f t="array" aca="1" ref="G35" ca="1">_xlfn.XLOOKUP($B35&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$V$4:$V$28)</f>
         <v>687.29099999999994</v>
       </c>
-      <c r="I35" s="12"/>
+      <c r="I35" s="11"/>
       <c r="J35" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -34191,7 +34190,7 @@
         <f t="array" aca="1" ref="O35" ca="1">_xlfn.XLOOKUP($B35&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$W$4:$W$28)/1000</f>
         <v>11.708906600000001</v>
       </c>
-      <c r="Q35" s="12"/>
+      <c r="Q35" s="11"/>
       <c r="R35" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -34215,7 +34214,7 @@
         <f t="array" aca="1" ref="W35" ca="1">_xlfn.XLOOKUP($B35&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$X$4:$X$28)/1000</f>
         <v>74.860642200000001</v>
       </c>
-      <c r="Y35" s="12"/>
+      <c r="Y35" s="11"/>
       <c r="Z35" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -34239,7 +34238,7 @@
         <f t="array" aca="1" ref="AE35" ca="1">_xlfn.XLOOKUP($B35&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$Y$4:$Y$28)/1000</f>
         <v>140.50687919999999</v>
       </c>
-      <c r="AG35" s="12"/>
+      <c r="AG35" s="11"/>
       <c r="AH35" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -34263,7 +34262,7 @@
         <f t="array" aca="1" ref="AM35" ca="1">_xlfn.XLOOKUP($B35&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$Z$4:$Z$28)/1000</f>
         <v>505.82476512</v>
       </c>
-      <c r="AP35" s="12"/>
+      <c r="AP35" s="11"/>
       <c r="AQ35" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -34311,54 +34310,11 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="AP31:AP35"/>
-    <mergeCell ref="AP2:AQ3"/>
-    <mergeCell ref="AR2:AV2"/>
-    <mergeCell ref="AP4:AP8"/>
-    <mergeCell ref="AP11:AQ12"/>
-    <mergeCell ref="AR11:AV11"/>
-    <mergeCell ref="AP13:AP17"/>
-    <mergeCell ref="AP20:AQ21"/>
-    <mergeCell ref="AR20:AV20"/>
-    <mergeCell ref="AP22:AP26"/>
-    <mergeCell ref="AP29:AQ30"/>
-    <mergeCell ref="AR29:AV29"/>
-    <mergeCell ref="Y29:Z30"/>
-    <mergeCell ref="AA29:AE29"/>
-    <mergeCell ref="AG29:AH30"/>
-    <mergeCell ref="AI29:AM29"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="I31:I35"/>
-    <mergeCell ref="Q31:Q35"/>
-    <mergeCell ref="Y31:Y35"/>
-    <mergeCell ref="AG31:AG35"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="I29:J30"/>
-    <mergeCell ref="Q29:R30"/>
-    <mergeCell ref="S29:W29"/>
-    <mergeCell ref="AI20:AM20"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="I22:I26"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="Y20:Z21"/>
-    <mergeCell ref="AA20:AE20"/>
-    <mergeCell ref="AG20:AH21"/>
-    <mergeCell ref="Q22:Q26"/>
-    <mergeCell ref="Y22:Y26"/>
-    <mergeCell ref="AG22:AG26"/>
-    <mergeCell ref="AA11:AE11"/>
-    <mergeCell ref="AG11:AH12"/>
-    <mergeCell ref="AI11:AM11"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="I13:I17"/>
-    <mergeCell ref="Q13:Q17"/>
-    <mergeCell ref="Y13:Y17"/>
-    <mergeCell ref="AG13:AG17"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="Q4:Q8"/>
     <mergeCell ref="AG2:AH3"/>
     <mergeCell ref="AI2:AM2"/>
     <mergeCell ref="AG4:AG8"/>
@@ -34375,11 +34331,54 @@
     <mergeCell ref="Q2:R3"/>
     <mergeCell ref="Y2:Z3"/>
     <mergeCell ref="A4:A8"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="AA11:AE11"/>
+    <mergeCell ref="AG11:AH12"/>
+    <mergeCell ref="AI11:AM11"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="Y13:Y17"/>
+    <mergeCell ref="AG13:AG17"/>
+    <mergeCell ref="AI20:AM20"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="S20:W20"/>
+    <mergeCell ref="Y20:Z21"/>
+    <mergeCell ref="AA20:AE20"/>
+    <mergeCell ref="AG20:AH21"/>
+    <mergeCell ref="Q22:Q26"/>
+    <mergeCell ref="Y22:Y26"/>
+    <mergeCell ref="AG22:AG26"/>
+    <mergeCell ref="Y29:Z30"/>
+    <mergeCell ref="AA29:AE29"/>
+    <mergeCell ref="AG29:AH30"/>
+    <mergeCell ref="AI29:AM29"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="I31:I35"/>
+    <mergeCell ref="Q31:Q35"/>
+    <mergeCell ref="Y31:Y35"/>
+    <mergeCell ref="AG31:AG35"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="Q29:R30"/>
+    <mergeCell ref="S29:W29"/>
+    <mergeCell ref="AP31:AP35"/>
+    <mergeCell ref="AP2:AQ3"/>
+    <mergeCell ref="AR2:AV2"/>
+    <mergeCell ref="AP4:AP8"/>
+    <mergeCell ref="AP11:AQ12"/>
+    <mergeCell ref="AR11:AV11"/>
+    <mergeCell ref="AP13:AP17"/>
+    <mergeCell ref="AP20:AQ21"/>
+    <mergeCell ref="AR20:AV20"/>
+    <mergeCell ref="AP22:AP26"/>
+    <mergeCell ref="AP29:AQ30"/>
+    <mergeCell ref="AR29:AV29"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:G8 H4">
     <cfRule type="colorScale" priority="32">
@@ -34769,7 +34768,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="14">
+      <c r="A1">
         <v>12.424974774999999</v>
       </c>
       <c r="B1">
@@ -34787,7 +34786,6 @@
         <f>B1+E1</f>
         <v>2611.8695002750001</v>
       </c>
-      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
@@ -34808,7 +34806,7 @@
         <f t="shared" ref="G2:G5" si="1">B2+E2</f>
         <v>4109.1697370499996</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2">
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="I2">
@@ -34837,7 +34835,7 @@
         <f t="shared" si="1"/>
         <v>5451.7743719500004</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3">
         <v>3.3799999999999997E-2</v>
       </c>
       <c r="I3">
@@ -34868,7 +34866,7 @@
         <f t="shared" si="1"/>
         <v>6161.3224899500001</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4">
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="I4">
@@ -34899,7 +34897,7 @@
         <f t="shared" si="1"/>
         <v>10450.882213325</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5">
         <v>9.0200000000000002E-2</v>
       </c>
       <c r="I5">
@@ -34975,76 +34973,76 @@
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="I2" s="13" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="11" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="Q2" s="13" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="Q2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="11" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="Y2" s="13" t="s">
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="Y2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="11" t="s">
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AG2" s="13" t="s">
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AG2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="11" t="s">
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AP2" s="13" t="s">
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AP2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="11" t="s">
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="13"/>
     </row>
     <row r="3" spans="1:49" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="1">
         <v>10</v>
       </c>
@@ -35063,8 +35061,8 @@
       <c r="H3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
       <c r="K3" s="1">
         <v>10</v>
       </c>
@@ -35083,8 +35081,8 @@
       <c r="P3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
       <c r="S3" s="1">
         <v>10</v>
       </c>
@@ -35103,8 +35101,8 @@
       <c r="X3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
       <c r="AA3" s="1">
         <v>10</v>
       </c>
@@ -35123,8 +35121,8 @@
       <c r="AF3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
       <c r="AI3" s="1">
         <v>10</v>
       </c>
@@ -35143,8 +35141,8 @@
       <c r="AN3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
       <c r="AR3" s="1">
         <v>10</v>
       </c>
@@ -35165,7 +35163,7 @@
       </c>
     </row>
     <row r="4" spans="1:49" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="1">
@@ -35194,7 +35192,7 @@
       <c r="H4">
         <v>279</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J4" s="1">
@@ -35223,7 +35221,7 @@
       <c r="P4" s="2">
         <v>32.94</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="R4" s="1">
@@ -35252,7 +35250,7 @@
       <c r="X4" s="5">
         <v>12.72</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Y4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="Z4" s="1">
@@ -35281,7 +35279,7 @@
       <c r="AF4" s="2">
         <v>198</v>
       </c>
-      <c r="AG4" s="12" t="s">
+      <c r="AG4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AH4" s="1">
@@ -35310,7 +35308,7 @@
       <c r="AN4" s="2">
         <v>1460.2</v>
       </c>
-      <c r="AP4" s="12" t="s">
+      <c r="AP4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AQ4" s="1">
@@ -35342,7 +35340,7 @@
       </c>
     </row>
     <row r="5" spans="1:49" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -35366,7 +35364,7 @@
         <f t="array" aca="1" ref="G5" ca="1">_xlfn.XLOOKUP($B5&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$D$4:$D$28)</f>
         <v>378.59100000000001</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -35390,7 +35388,7 @@
         <f t="array" aca="1" ref="O5" ca="1">_xlfn.XLOOKUP($B5&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$E$4:$E$28)/1000</f>
         <v>11.4857402</v>
       </c>
-      <c r="Q5" s="12"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -35414,7 +35412,7 @@
         <f t="array" aca="1" ref="W5" ca="1">IF(_xlfn.XLOOKUP($B5&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$F$4:$F$28)&lt;600000,0,_xlfn.XLOOKUP($B5&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$F$4:$F$28))</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="12"/>
+      <c r="Y5" s="11"/>
       <c r="Z5" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -35438,7 +35436,7 @@
         <f t="array" aca="1" ref="AE5" ca="1">_xlfn.XLOOKUP($B5&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$G$4:$G$28)/1000</f>
         <v>137.8288824</v>
       </c>
-      <c r="AG5" s="12"/>
+      <c r="AG5" s="11"/>
       <c r="AH5" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -35462,7 +35460,7 @@
         <f t="array" aca="1" ref="AM5" ca="1">_xlfn.XLOOKUP($B5&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$H$4:$H$28)/1000</f>
         <v>496.18397664000003</v>
       </c>
-      <c r="AP5" s="12"/>
+      <c r="AP5" s="11"/>
       <c r="AQ5" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -35488,7 +35486,7 @@
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -35512,7 +35510,7 @@
         <f t="array" aca="1" ref="G6" ca="1">_xlfn.XLOOKUP($B6&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$D$4:$D$28)</f>
         <v>446.69100000000003</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -35536,7 +35534,7 @@
         <f t="array" aca="1" ref="O6" ca="1">_xlfn.XLOOKUP($B6&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$E$4:$E$28)/1000</f>
         <v>12.55947595</v>
       </c>
-      <c r="Q6" s="12"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -35560,7 +35558,7 @@
         <f t="array" aca="1" ref="W6" ca="1">IF(_xlfn.XLOOKUP($B6&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$F$4:$F$28)&lt;600000,0,_xlfn.XLOOKUP($B6&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$F$4:$F$28))</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="12"/>
+      <c r="Y6" s="11"/>
       <c r="Z6" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -35584,7 +35582,7 @@
         <f t="array" aca="1" ref="AE6" ca="1">_xlfn.XLOOKUP($B6&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$G$4:$G$28)/1000</f>
         <v>150.71371139999999</v>
       </c>
-      <c r="AG6" s="12"/>
+      <c r="AG6" s="11"/>
       <c r="AH6" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -35608,7 +35606,7 @@
         <f t="array" aca="1" ref="AM6" ca="1">_xlfn.XLOOKUP($B6&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$H$4:$H$28)/1000</f>
         <v>481.41026352</v>
       </c>
-      <c r="AP6" s="12"/>
+      <c r="AP6" s="11"/>
       <c r="AQ6" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -35634,7 +35632,7 @@
       </c>
     </row>
     <row r="7" spans="1:49" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -35658,7 +35656,7 @@
         <f t="array" aca="1" ref="G7" ca="1">_xlfn.XLOOKUP($B7&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$D$4:$D$28)</f>
         <v>731.49099999999999</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -35682,7 +35680,7 @@
         <f t="array" aca="1" ref="O7" ca="1">_xlfn.XLOOKUP($B7&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$E$4:$E$28)/1000</f>
         <v>11.574680075000002</v>
       </c>
-      <c r="Q7" s="12"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -35706,7 +35704,7 @@
         <f t="array" aca="1" ref="W7" ca="1">IF(_xlfn.XLOOKUP($B7&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$F$4:$F$28)&lt;600000,0,_xlfn.XLOOKUP($B7&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$F$4:$F$28))</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="12"/>
+      <c r="Y7" s="11"/>
       <c r="Z7" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -35730,7 +35728,7 @@
         <f t="array" aca="1" ref="AE7" ca="1">_xlfn.XLOOKUP($B7&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$G$4:$G$28)/1000</f>
         <v>138.89616090000001</v>
       </c>
-      <c r="AG7" s="12"/>
+      <c r="AG7" s="11"/>
       <c r="AH7" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -35754,7 +35752,7 @@
         <f t="array" aca="1" ref="AM7" ca="1">_xlfn.XLOOKUP($B7&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$H$4:$H$28)/1000</f>
         <v>500.02617924000009</v>
       </c>
-      <c r="AP7" s="12"/>
+      <c r="AP7" s="11"/>
       <c r="AQ7" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -35783,7 +35781,7 @@
       </c>
     </row>
     <row r="8" spans="1:49" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="12"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -35807,7 +35805,7 @@
         <f t="array" aca="1" ref="G8" ca="1">_xlfn.XLOOKUP($B8&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$D$4:$D$28)</f>
         <v>874.79099999999994</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -35831,7 +35829,7 @@
         <f t="array" aca="1" ref="O8" ca="1">_xlfn.XLOOKUP($B8&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$E$4:$E$28)/1000</f>
         <v>11.077354825</v>
       </c>
-      <c r="Q8" s="12"/>
+      <c r="Q8" s="11"/>
       <c r="R8" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -35855,7 +35853,7 @@
         <f t="array" aca="1" ref="W8" ca="1">IF(_xlfn.XLOOKUP($B8&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$F$4:$F$28)&lt;600000,0,_xlfn.XLOOKUP($B8&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$F$4:$F$28))</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="12"/>
+      <c r="Y8" s="11"/>
       <c r="Z8" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -35879,7 +35877,7 @@
         <f t="array" aca="1" ref="AE8" ca="1">_xlfn.XLOOKUP($B8&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$G$4:$G$28)/1000</f>
         <v>132.92825790000001</v>
       </c>
-      <c r="AG8" s="12"/>
+      <c r="AG8" s="11"/>
       <c r="AH8" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -35903,7 +35901,7 @@
         <f t="array" aca="1" ref="AM8" ca="1">_xlfn.XLOOKUP($B8&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$H$4:$H$28)/1000</f>
         <v>478.54172843999999</v>
       </c>
-      <c r="AP8" s="12"/>
+      <c r="AP8" s="11"/>
       <c r="AQ8" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -35938,22 +35936,22 @@
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="13"/>
+      <c r="J11" s="12"/>
       <c r="K11" s="1" t="s">
         <v>43</v>
       </c>
@@ -35962,56 +35960,56 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="11" t="s">
+      <c r="R11" s="12"/>
+      <c r="S11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="13" t="s">
+      <c r="Y11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="11" t="s">
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="13" t="s">
+      <c r="AG11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="11" t="s">
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="11"/>
-      <c r="AM11" s="11"/>
-      <c r="AP11" s="13" t="s">
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AP11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="11" t="s">
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AS11" s="11"/>
-      <c r="AT11" s="11"/>
-      <c r="AU11" s="11"/>
-      <c r="AV11" s="11"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
     </row>
     <row r="12" spans="1:49" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="1">
         <v>10</v>
       </c>
@@ -36030,8 +36028,8 @@
       <c r="H12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
@@ -36050,8 +36048,8 @@
       <c r="P12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
       <c r="S12" s="1">
         <v>10</v>
       </c>
@@ -36070,8 +36068,8 @@
       <c r="X12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
       <c r="AA12" s="1">
         <v>10</v>
       </c>
@@ -36090,8 +36088,8 @@
       <c r="AF12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
       <c r="AI12" s="1">
         <v>10</v>
       </c>
@@ -36110,8 +36108,8 @@
       <c r="AN12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="13"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
       <c r="AR12" s="1">
         <v>10</v>
       </c>
@@ -36132,7 +36130,7 @@
       </c>
     </row>
     <row r="13" spans="1:49" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="1">
@@ -36161,7 +36159,7 @@
       <c r="H13">
         <v>279</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J13" s="1">
@@ -36190,7 +36188,7 @@
       <c r="P13" s="2">
         <v>32.94</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="R13" s="1">
@@ -36219,7 +36217,7 @@
       <c r="X13" s="5">
         <v>12.72</v>
       </c>
-      <c r="Y13" s="12" t="s">
+      <c r="Y13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="Z13" s="1">
@@ -36248,7 +36246,7 @@
       <c r="AF13" s="2">
         <v>198</v>
       </c>
-      <c r="AG13" s="12" t="s">
+      <c r="AG13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AH13" s="1">
@@ -36277,7 +36275,7 @@
       <c r="AN13" s="2">
         <v>1460.2</v>
       </c>
-      <c r="AP13" s="12" t="s">
+      <c r="AP13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AQ13" s="1">
@@ -36309,7 +36307,7 @@
       </c>
     </row>
     <row r="14" spans="1:49" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="12"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -36333,7 +36331,7 @@
         <f t="array" aca="1" ref="G14" ca="1">_xlfn.XLOOKUP($B14&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$J$4:$J$28)</f>
         <v>276.69100000000003</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -36357,7 +36355,7 @@
         <f t="array" aca="1" ref="O14" ca="1">_xlfn.XLOOKUP($B14&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$K$4:$K$28)/1000</f>
         <v>12.326034200000002</v>
       </c>
-      <c r="Q14" s="12"/>
+      <c r="Q14" s="11"/>
       <c r="R14" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -36381,7 +36379,7 @@
         <f t="array" aca="1" ref="W14" ca="1">IF(_xlfn.XLOOKUP($B14&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$L$4:$L$28)/1000&lt;600,0,_xlfn.XLOOKUP($B14&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$L$4:$L$28)/1000)</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="12"/>
+      <c r="Y14" s="11"/>
       <c r="Z14" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -36405,7 +36403,7 @@
         <f t="array" aca="1" ref="AE14" ca="1">_xlfn.XLOOKUP($B14&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$M$4:$M$28)/1000</f>
         <v>147.91241040000003</v>
       </c>
-      <c r="AG14" s="12"/>
+      <c r="AG14" s="11"/>
       <c r="AH14" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -36429,7 +36427,7 @@
         <f t="array" aca="1" ref="AM14" ca="1">_xlfn.XLOOKUP($B14&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$N$4:$N$28)/1000</f>
         <v>532.48467744000016</v>
       </c>
-      <c r="AP14" s="12"/>
+      <c r="AP14" s="11"/>
       <c r="AQ14" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -36455,7 +36453,7 @@
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A15" s="12"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -36479,7 +36477,7 @@
         <f t="array" aca="1" ref="G15" ca="1">_xlfn.XLOOKUP($B15&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$J$4:$J$28)</f>
         <v>407.69100000000003</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -36503,7 +36501,7 @@
         <f t="array" aca="1" ref="O15" ca="1">_xlfn.XLOOKUP($B15&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$K$4:$K$28)/1000</f>
         <v>13.193551075000002</v>
       </c>
-      <c r="Q15" s="12"/>
+      <c r="Q15" s="11"/>
       <c r="R15" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -36527,7 +36525,7 @@
         <f t="array" aca="1" ref="W15" ca="1">IF(_xlfn.XLOOKUP($B15&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$L$4:$L$28)/1000&lt;600,0,_xlfn.XLOOKUP($B15&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$L$4:$L$28)/1000)</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="12"/>
+      <c r="Y15" s="11"/>
       <c r="Z15" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -36551,7 +36549,7 @@
         <f t="array" aca="1" ref="AE15" ca="1">_xlfn.XLOOKUP($B15&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$M$4:$M$28)/1000</f>
         <v>158.3226129</v>
       </c>
-      <c r="AG15" s="12"/>
+      <c r="AG15" s="11"/>
       <c r="AH15" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -36575,7 +36573,7 @@
         <f t="array" aca="1" ref="AM15" ca="1">_xlfn.XLOOKUP($B15&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$N$4:$N$28)/1000</f>
         <v>506.10272616000003</v>
       </c>
-      <c r="AP15" s="12"/>
+      <c r="AP15" s="11"/>
       <c r="AQ15" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -36601,7 +36599,7 @@
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A16" s="12"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -36625,7 +36623,7 @@
         <f t="array" aca="1" ref="G16" ca="1">_xlfn.XLOOKUP($B16&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$J$4:$J$28)</f>
         <v>417.291</v>
       </c>
-      <c r="I16" s="12"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -36649,7 +36647,7 @@
         <f t="array" aca="1" ref="O16" ca="1">_xlfn.XLOOKUP($B16&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$K$4:$K$28)/1000</f>
         <v>12.226434000000001</v>
       </c>
-      <c r="Q16" s="12"/>
+      <c r="Q16" s="11"/>
       <c r="R16" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -36673,7 +36671,7 @@
         <f t="array" aca="1" ref="W16" ca="1">IF(_xlfn.XLOOKUP($B16&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$L$4:$L$28)/1000&lt;600,0,_xlfn.XLOOKUP($B16&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$L$4:$L$28)/1000)</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="12"/>
+      <c r="Y16" s="11"/>
       <c r="Z16" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -36697,7 +36695,7 @@
         <f t="array" aca="1" ref="AE16" ca="1">_xlfn.XLOOKUP($B16&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$M$4:$M$28)/1000</f>
         <v>146.717208</v>
       </c>
-      <c r="AG16" s="12"/>
+      <c r="AG16" s="11"/>
       <c r="AH16" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -36721,7 +36719,7 @@
         <f t="array" aca="1" ref="AM16" ca="1">_xlfn.XLOOKUP($B16&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$N$4:$N$28)/1000</f>
         <v>528.18194879999999</v>
       </c>
-      <c r="AP16" s="12"/>
+      <c r="AP16" s="11"/>
       <c r="AQ16" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -36750,7 +36748,7 @@
       </c>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A17" s="12"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -36774,7 +36772,7 @@
         <f t="array" aca="1" ref="G17" ca="1">_xlfn.XLOOKUP($B17&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$J$4:$J$28)</f>
         <v>687.29099999999994</v>
       </c>
-      <c r="I17" s="12"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -36798,7 +36796,7 @@
         <f t="array" aca="1" ref="O17" ca="1">_xlfn.XLOOKUP($B17&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$K$4:$K$28)/1000</f>
         <v>11.708906600000001</v>
       </c>
-      <c r="Q17" s="12"/>
+      <c r="Q17" s="11"/>
       <c r="R17" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -36822,7 +36820,7 @@
         <f t="array" aca="1" ref="W17" ca="1">IF(_xlfn.XLOOKUP($B17&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$L$4:$L$28)/1000&lt;600,0,_xlfn.XLOOKUP($B17&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$L$4:$L$28)/1000)</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="12"/>
+      <c r="Y17" s="11"/>
       <c r="Z17" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -36846,7 +36844,7 @@
         <f t="array" aca="1" ref="AE17" ca="1">_xlfn.XLOOKUP($B17&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$M$4:$M$28)/1000</f>
         <v>140.50687919999999</v>
       </c>
-      <c r="AG17" s="12"/>
+      <c r="AG17" s="11"/>
       <c r="AH17" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -36870,7 +36868,7 @@
         <f t="array" aca="1" ref="AM17" ca="1">_xlfn.XLOOKUP($B17&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$N$4:$N$28)/1000</f>
         <v>505.82476512</v>
       </c>
-      <c r="AP17" s="12"/>
+      <c r="AP17" s="11"/>
       <c r="AQ17" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -36905,22 +36903,22 @@
       </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="13"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="1" t="s">
         <v>43</v>
       </c>
@@ -36929,56 +36927,56 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="13" t="s">
+      <c r="Q20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R20" s="13"/>
-      <c r="S20" s="11" t="s">
+      <c r="R20" s="12"/>
+      <c r="S20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="13" t="s">
+      <c r="Y20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="11" t="s">
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
       <c r="AF20" s="1"/>
-      <c r="AG20" s="13" t="s">
+      <c r="AG20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="11" t="s">
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
-      <c r="AP20" s="13" t="s">
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
+      <c r="AP20" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="11" t="s">
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="13"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="1">
         <v>10</v>
       </c>
@@ -36997,8 +36995,8 @@
       <c r="H21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="1">
         <v>10</v>
       </c>
@@ -37017,8 +37015,8 @@
       <c r="P21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
       <c r="S21" s="1">
         <v>10</v>
       </c>
@@ -37037,8 +37035,8 @@
       <c r="X21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
       <c r="AA21" s="1">
         <v>10</v>
       </c>
@@ -37057,8 +37055,8 @@
       <c r="AF21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
       <c r="AI21" s="1">
         <v>10</v>
       </c>
@@ -37077,8 +37075,8 @@
       <c r="AN21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AP21" s="13"/>
-      <c r="AQ21" s="13"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
       <c r="AR21" s="1">
         <v>10</v>
       </c>
@@ -37099,7 +37097,7 @@
       </c>
     </row>
     <row r="22" spans="1:49" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="1">
@@ -37128,7 +37126,7 @@
       <c r="H22">
         <v>279</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J22" s="1">
@@ -37157,7 +37155,7 @@
       <c r="P22" s="2">
         <v>32.94</v>
       </c>
-      <c r="Q22" s="12" t="s">
+      <c r="Q22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="R22" s="1">
@@ -37186,7 +37184,7 @@
       <c r="X22" s="5">
         <v>12.72</v>
       </c>
-      <c r="Y22" s="12" t="s">
+      <c r="Y22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="Z22" s="1">
@@ -37215,7 +37213,7 @@
       <c r="AF22" s="2">
         <v>198</v>
       </c>
-      <c r="AG22" s="12" t="s">
+      <c r="AG22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AH22" s="1">
@@ -37244,7 +37242,7 @@
       <c r="AN22" s="2">
         <v>1460.2</v>
       </c>
-      <c r="AP22" s="12" t="s">
+      <c r="AP22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AQ22" s="1">
@@ -37276,7 +37274,7 @@
       </c>
     </row>
     <row r="23" spans="1:49" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="12"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -37300,7 +37298,7 @@
         <f t="array" aca="1" ref="G23" ca="1">_xlfn.XLOOKUP($B23&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$P$4:$P$28)</f>
         <v>370.89100000000002</v>
       </c>
-      <c r="I23" s="12"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -37324,7 +37322,7 @@
         <f t="array" aca="1" ref="O23" ca="1">_xlfn.XLOOKUP($B23&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$Q$4:$Q$28)/1000</f>
         <v>11.624834049999999</v>
       </c>
-      <c r="Q23" s="12"/>
+      <c r="Q23" s="11"/>
       <c r="R23" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -37348,7 +37346,7 @@
         <f t="array" aca="1" ref="W23" ca="1">IF(_xlfn.XLOOKUP($B23&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$R$4:$R$28)/1000&lt;600,0,_xlfn.XLOOKUP($B23&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$R$4:$R$28)/1000&lt;600)</f>
         <v>0</v>
       </c>
-      <c r="Y23" s="12"/>
+      <c r="Y23" s="11"/>
       <c r="Z23" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -37372,7 +37370,7 @@
         <f t="array" aca="1" ref="AE23" ca="1">_xlfn.XLOOKUP($B23&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$S$4:$S$28)/1000</f>
         <v>139.49800859999999</v>
       </c>
-      <c r="AG23" s="12"/>
+      <c r="AG23" s="11"/>
       <c r="AH23" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -37396,7 +37394,7 @@
         <f t="array" aca="1" ref="AM23" ca="1">_xlfn.XLOOKUP($B23&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$T$4:$T$28)/1000</f>
         <v>502.19283095999998</v>
       </c>
-      <c r="AP23" s="12"/>
+      <c r="AP23" s="11"/>
       <c r="AQ23" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -37422,7 +37420,7 @@
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A24" s="12"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -37446,7 +37444,7 @@
         <f t="array" aca="1" ref="G24" ca="1">_xlfn.XLOOKUP($B24&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$P$4:$P$28)</f>
         <v>418.39100000000002</v>
       </c>
-      <c r="I24" s="12"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -37470,7 +37468,7 @@
         <f t="array" aca="1" ref="O24" ca="1">_xlfn.XLOOKUP($B24&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$Q$4:$Q$28)/1000</f>
         <v>12.625050075000001</v>
       </c>
-      <c r="Q24" s="12"/>
+      <c r="Q24" s="11"/>
       <c r="R24" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -37494,7 +37492,7 @@
         <f t="array" aca="1" ref="W24" ca="1">IF(_xlfn.XLOOKUP($B24&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$R$4:$R$28)/1000&lt;600,0,_xlfn.XLOOKUP($B24&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$R$4:$R$28)/1000&lt;600)</f>
         <v>0</v>
       </c>
-      <c r="Y24" s="12"/>
+      <c r="Y24" s="11"/>
       <c r="Z24" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -37518,7 +37516,7 @@
         <f t="array" aca="1" ref="AE24" ca="1">_xlfn.XLOOKUP($B24&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$S$4:$S$28)/1000</f>
         <v>151.50060090000002</v>
       </c>
-      <c r="AG24" s="12"/>
+      <c r="AG24" s="11"/>
       <c r="AH24" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -37542,7 +37540,7 @@
         <f t="array" aca="1" ref="AM24" ca="1">_xlfn.XLOOKUP($B24&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$T$4:$T$28)/1000</f>
         <v>483.93104543999999</v>
       </c>
-      <c r="AP24" s="12"/>
+      <c r="AP24" s="11"/>
       <c r="AQ24" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -37568,7 +37566,7 @@
       </c>
     </row>
     <row r="25" spans="1:49" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="12"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -37592,7 +37590,7 @@
         <f t="array" aca="1" ref="G25" ca="1">_xlfn.XLOOKUP($B25&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$P$4:$P$28)</f>
         <v>697.99099999999999</v>
       </c>
-      <c r="I25" s="12"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -37616,7 +37614,7 @@
         <f t="array" aca="1" ref="O25" ca="1">_xlfn.XLOOKUP($B25&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$Q$4:$Q$28)/1000</f>
         <v>11.535883</v>
       </c>
-      <c r="Q25" s="12"/>
+      <c r="Q25" s="11"/>
       <c r="R25" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -37640,7 +37638,7 @@
         <f t="array" aca="1" ref="W25" ca="1">IF(_xlfn.XLOOKUP($B25&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$R$4:$R$28)/1000&lt;600,0,_xlfn.XLOOKUP($B25&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$R$4:$R$28)/1000&lt;600)</f>
         <v>0</v>
       </c>
-      <c r="Y25" s="12"/>
+      <c r="Y25" s="11"/>
       <c r="Z25" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -37664,7 +37662,7 @@
         <f t="array" aca="1" ref="AE25" ca="1">_xlfn.XLOOKUP($B25&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$S$4:$S$28)/1000</f>
         <v>138.43059599999998</v>
       </c>
-      <c r="AG25" s="12"/>
+      <c r="AG25" s="11"/>
       <c r="AH25" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -37688,7 +37686,7 @@
         <f t="array" aca="1" ref="AM25" ca="1">_xlfn.XLOOKUP($B25&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$T$4:$T$28)/1000</f>
         <v>498.35014559999996</v>
       </c>
-      <c r="AP25" s="12"/>
+      <c r="AP25" s="11"/>
       <c r="AQ25" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -37717,7 +37715,7 @@
       </c>
     </row>
     <row r="26" spans="1:49" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="12"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -37741,7 +37739,7 @@
         <f t="array" aca="1" ref="G26" ca="1">_xlfn.XLOOKUP($B26&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$P$4:$P$28)</f>
         <v>880.89099999999996</v>
       </c>
-      <c r="I26" s="12"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -37765,7 +37763,7 @@
         <f t="array" aca="1" ref="O26" ca="1">_xlfn.XLOOKUP($B26&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$Q$4:$Q$28)/1000</f>
         <v>11.123252200000001</v>
       </c>
-      <c r="Q26" s="12"/>
+      <c r="Q26" s="11"/>
       <c r="R26" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -37789,7 +37787,7 @@
         <f t="array" aca="1" ref="W26" ca="1">IF(_xlfn.XLOOKUP($B26&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$R$4:$R$28)/1000&lt;600,0,_xlfn.XLOOKUP($B26&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$R$4:$R$28)/1000&lt;600)</f>
         <v>0</v>
       </c>
-      <c r="Y26" s="12"/>
+      <c r="Y26" s="11"/>
       <c r="Z26" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -37813,7 +37811,7 @@
         <f t="array" aca="1" ref="AE26" ca="1">_xlfn.XLOOKUP($B26&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$S$4:$S$28)/1000</f>
         <v>133.47902640000001</v>
       </c>
-      <c r="AG26" s="12"/>
+      <c r="AG26" s="11"/>
       <c r="AH26" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -37837,7 +37835,7 @@
         <f t="array" aca="1" ref="AM26" ca="1">_xlfn.XLOOKUP($B26&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$T$4:$T$28)/1000</f>
         <v>480.52449504000003</v>
       </c>
-      <c r="AP26" s="12"/>
+      <c r="AP26" s="11"/>
       <c r="AQ26" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -37872,22 +37870,22 @@
       </c>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J29" s="13"/>
+      <c r="J29" s="12"/>
       <c r="K29" s="1" t="s">
         <v>43</v>
       </c>
@@ -37896,56 +37894,56 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="13" t="s">
+      <c r="Q29" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R29" s="13"/>
-      <c r="S29" s="11" t="s">
+      <c r="R29" s="12"/>
+      <c r="S29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
       <c r="X29" s="1"/>
-      <c r="Y29" s="13" t="s">
+      <c r="Y29" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="11" t="s">
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
       <c r="AF29" s="1"/>
-      <c r="AG29" s="13" t="s">
+      <c r="AG29" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="11" t="s">
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AJ29" s="11"/>
-      <c r="AK29" s="11"/>
-      <c r="AL29" s="11"/>
-      <c r="AM29" s="11"/>
-      <c r="AP29" s="13" t="s">
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="13"/>
+      <c r="AP29" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AQ29" s="13"/>
-      <c r="AR29" s="11" t="s">
+      <c r="AQ29" s="12"/>
+      <c r="AR29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AS29" s="11"/>
-      <c r="AT29" s="11"/>
-      <c r="AU29" s="11"/>
-      <c r="AV29" s="11"/>
+      <c r="AS29" s="13"/>
+      <c r="AT29" s="13"/>
+      <c r="AU29" s="13"/>
+      <c r="AV29" s="13"/>
     </row>
     <row r="30" spans="1:49" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="1">
         <v>10</v>
       </c>
@@ -37964,8 +37962,8 @@
       <c r="H30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
       <c r="K30" s="1">
         <v>10</v>
       </c>
@@ -37984,8 +37982,8 @@
       <c r="P30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
       <c r="S30" s="1">
         <v>10</v>
       </c>
@@ -38004,8 +38002,8 @@
       <c r="X30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
       <c r="AA30" s="1">
         <v>10</v>
       </c>
@@ -38024,8 +38022,8 @@
       <c r="AF30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="13"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
       <c r="AI30" s="1">
         <v>10</v>
       </c>
@@ -38044,8 +38042,8 @@
       <c r="AN30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AP30" s="13"/>
-      <c r="AQ30" s="13"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="12"/>
       <c r="AR30" s="1">
         <v>10</v>
       </c>
@@ -38066,7 +38064,7 @@
       </c>
     </row>
     <row r="31" spans="1:49" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="1">
@@ -38095,7 +38093,7 @@
       <c r="H31">
         <v>279</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J31" s="1">
@@ -38124,7 +38122,7 @@
       <c r="P31" s="2">
         <v>32.94</v>
       </c>
-      <c r="Q31" s="12" t="s">
+      <c r="Q31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="R31" s="1">
@@ -38153,7 +38151,7 @@
       <c r="X31" s="5">
         <v>12.72</v>
       </c>
-      <c r="Y31" s="12" t="s">
+      <c r="Y31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="Z31" s="1">
@@ -38182,7 +38180,7 @@
       <c r="AF31" s="2">
         <v>198</v>
       </c>
-      <c r="AG31" s="12" t="s">
+      <c r="AG31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AH31" s="1">
@@ -38211,7 +38209,7 @@
       <c r="AN31" s="2">
         <v>1460.2</v>
       </c>
-      <c r="AP31" s="12" t="s">
+      <c r="AP31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AQ31" s="1">
@@ -38243,7 +38241,7 @@
       </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A32" s="12"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -38267,7 +38265,7 @@
         <f t="array" aca="1" ref="G32" ca="1">_xlfn.XLOOKUP($B32&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$V$4:$V$28)</f>
         <v>259.49100000000004</v>
       </c>
-      <c r="I32" s="12"/>
+      <c r="I32" s="11"/>
       <c r="J32" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -38291,7 +38289,7 @@
         <f t="array" aca="1" ref="O32" ca="1">_xlfn.XLOOKUP($B32&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$W$4:$W$28)/1000</f>
         <v>12.677765525</v>
       </c>
-      <c r="Q32" s="12"/>
+      <c r="Q32" s="11"/>
       <c r="R32" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -38315,7 +38313,7 @@
         <f t="array" aca="1" ref="W32" ca="1">IF(_xlfn.XLOOKUP($B32&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$X$4:$X$28)/1000&lt;600, 0, _xlfn.XLOOKUP($B32&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$X$4:$X$28)/1000)</f>
         <v>0</v>
       </c>
-      <c r="Y32" s="12"/>
+      <c r="Y32" s="11"/>
       <c r="Z32" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -38339,7 +38337,7 @@
         <f t="array" aca="1" ref="AE32" ca="1">_xlfn.XLOOKUP($B32&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$Y$4:$Y$28)/1000</f>
         <v>152.13318630000001</v>
       </c>
-      <c r="AG32" s="12"/>
+      <c r="AG32" s="11"/>
       <c r="AH32" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -38363,7 +38361,7 @@
         <f t="array" aca="1" ref="AM32" ca="1">_xlfn.XLOOKUP($B32&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$Z$4:$Z$28)/1000</f>
         <v>547.67947068000001</v>
       </c>
-      <c r="AP32" s="12"/>
+      <c r="AP32" s="11"/>
       <c r="AQ32" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -38389,7 +38387,7 @@
       </c>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A33" s="12"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -38413,7 +38411,7 @@
         <f t="array" aca="1" ref="G33" ca="1">_xlfn.XLOOKUP($B33&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$V$4:$V$28)</f>
         <v>374.19100000000003</v>
       </c>
-      <c r="I33" s="12"/>
+      <c r="I33" s="11"/>
       <c r="J33" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -38437,7 +38435,7 @@
         <f t="array" aca="1" ref="O33" ca="1">_xlfn.XLOOKUP($B33&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$W$4:$W$28)/1000</f>
         <v>13.361993099999999</v>
       </c>
-      <c r="Q33" s="12"/>
+      <c r="Q33" s="11"/>
       <c r="R33" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -38461,7 +38459,7 @@
         <f t="array" aca="1" ref="W33" ca="1">IF(_xlfn.XLOOKUP($B33&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$X$4:$X$28)/1000&lt;600, 0, _xlfn.XLOOKUP($B33&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$X$4:$X$28)/1000)</f>
         <v>0</v>
       </c>
-      <c r="Y33" s="12"/>
+      <c r="Y33" s="11"/>
       <c r="Z33" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -38485,7 +38483,7 @@
         <f t="array" aca="1" ref="AE33" ca="1">_xlfn.XLOOKUP($B33&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$Y$4:$Y$28)/1000</f>
         <v>160.34391719999999</v>
       </c>
-      <c r="AG33" s="12"/>
+      <c r="AG33" s="11"/>
       <c r="AH33" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -38509,7 +38507,7 @@
         <f t="array" aca="1" ref="AM33" ca="1">_xlfn.XLOOKUP($B33&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$Z$4:$Z$28)/1000</f>
         <v>512.57128067999986</v>
       </c>
-      <c r="AP33" s="12"/>
+      <c r="AP33" s="11"/>
       <c r="AQ33" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -38535,7 +38533,7 @@
       </c>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A34" s="12"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -38559,7 +38557,7 @@
         <f t="array" aca="1" ref="G34" ca="1">_xlfn.XLOOKUP($B34&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$V$4:$V$28)</f>
         <v>369.39100000000002</v>
       </c>
-      <c r="I34" s="12"/>
+      <c r="I34" s="11"/>
       <c r="J34" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -38583,7 +38581,7 @@
         <f t="array" aca="1" ref="O34" ca="1">_xlfn.XLOOKUP($B34&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$W$4:$W$28)/1000</f>
         <v>11.992827125000002</v>
       </c>
-      <c r="Q34" s="12"/>
+      <c r="Q34" s="11"/>
       <c r="R34" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -38607,7 +38605,7 @@
         <f t="array" aca="1" ref="W34" ca="1">IF(_xlfn.XLOOKUP($B34&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$X$4:$X$28)/1000&lt;600, 0, _xlfn.XLOOKUP($B34&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$X$4:$X$28)/1000)</f>
         <v>0</v>
       </c>
-      <c r="Y34" s="12"/>
+      <c r="Y34" s="11"/>
       <c r="Z34" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -38631,7 +38629,7 @@
         <f t="array" aca="1" ref="AE34" ca="1">_xlfn.XLOOKUP($B34&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$Y$4:$Y$28)/1000</f>
         <v>143.9139255</v>
       </c>
-      <c r="AG34" s="12"/>
+      <c r="AG34" s="11"/>
       <c r="AH34" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -38655,7 +38653,7 @@
         <f t="array" aca="1" ref="AM34" ca="1">_xlfn.XLOOKUP($B34&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$Z$4:$Z$28)/1000</f>
         <v>518.09013179999999</v>
       </c>
-      <c r="AP34" s="12"/>
+      <c r="AP34" s="11"/>
       <c r="AQ34" s="1">
         <v>4.5100000000000001E-2</v>
       </c>
@@ -38684,7 +38682,7 @@
       </c>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A35" s="12"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -38708,7 +38706,7 @@
         <f t="array" aca="1" ref="G35" ca="1">_xlfn.XLOOKUP($B35&amp;G$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$V$4:$V$28)</f>
         <v>687.29099999999994</v>
       </c>
-      <c r="I35" s="12"/>
+      <c r="I35" s="11"/>
       <c r="J35" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -38732,7 +38730,7 @@
         <f t="array" aca="1" ref="O35" ca="1">_xlfn.XLOOKUP($B35&amp;O$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$W$4:$W$28)/1000</f>
         <v>11.708906600000001</v>
       </c>
-      <c r="Q35" s="12"/>
+      <c r="Q35" s="11"/>
       <c r="R35" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -38756,7 +38754,7 @@
         <f t="array" aca="1" ref="W35" ca="1">IF(_xlfn.XLOOKUP($B35&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$X$4:$X$28)/1000&lt;600, 0, _xlfn.XLOOKUP($B35&amp;W$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$X$4:$X$28)/1000)</f>
         <v>0</v>
       </c>
-      <c r="Y35" s="12"/>
+      <c r="Y35" s="11"/>
       <c r="Z35" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -38780,7 +38778,7 @@
         <f t="array" aca="1" ref="AE35" ca="1">_xlfn.XLOOKUP($B35&amp;AE$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$Y$4:$Y$28)/1000</f>
         <v>140.50687919999999</v>
       </c>
-      <c r="AG35" s="12"/>
+      <c r="AG35" s="11"/>
       <c r="AH35" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -38804,7 +38802,7 @@
         <f t="array" aca="1" ref="AM35" ca="1">_xlfn.XLOOKUP($B35&amp;AM$3,'Scraped data'!$B$4:$B$28&amp;'Scraped data'!$C$4:$C$28,'Scraped data'!$Z$4:$Z$28)/1000</f>
         <v>505.82476512</v>
       </c>
-      <c r="AP35" s="12"/>
+      <c r="AP35" s="11"/>
       <c r="AQ35" s="1">
         <v>9.0200000000000002E-2</v>
       </c>
@@ -38835,35 +38833,30 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="AR2:AV2"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AP4:AP8"/>
-    <mergeCell ref="Y2:Z3"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AG2:AH3"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="AP2:AQ3"/>
-    <mergeCell ref="Y11:Z12"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="Q11:R12"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="AA11:AE11"/>
-    <mergeCell ref="AG11:AH12"/>
-    <mergeCell ref="AI11:AM11"/>
-    <mergeCell ref="AP11:AQ12"/>
-    <mergeCell ref="AR11:AV11"/>
+    <mergeCell ref="AP31:AP35"/>
+    <mergeCell ref="AA29:AE29"/>
+    <mergeCell ref="AG29:AH30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="I31:I35"/>
+    <mergeCell ref="Q31:Q35"/>
+    <mergeCell ref="Y31:Y35"/>
+    <mergeCell ref="AG31:AG35"/>
+    <mergeCell ref="AI29:AM29"/>
+    <mergeCell ref="AP29:AQ30"/>
+    <mergeCell ref="AR20:AV20"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="Q22:Q26"/>
+    <mergeCell ref="Y22:Y26"/>
+    <mergeCell ref="AG22:AG26"/>
+    <mergeCell ref="AP22:AP26"/>
+    <mergeCell ref="AR29:AV29"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="Q29:R30"/>
+    <mergeCell ref="S29:W29"/>
+    <mergeCell ref="Y29:Z30"/>
     <mergeCell ref="AP13:AP17"/>
     <mergeCell ref="A20:B21"/>
     <mergeCell ref="C20:G20"/>
@@ -38880,30 +38873,35 @@
     <mergeCell ref="Y13:Y17"/>
     <mergeCell ref="AG13:AG17"/>
     <mergeCell ref="AP20:AQ21"/>
-    <mergeCell ref="AR29:AV29"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="I29:J30"/>
-    <mergeCell ref="Q29:R30"/>
-    <mergeCell ref="S29:W29"/>
-    <mergeCell ref="Y29:Z30"/>
-    <mergeCell ref="AR20:AV20"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="I22:I26"/>
-    <mergeCell ref="Q22:Q26"/>
-    <mergeCell ref="Y22:Y26"/>
-    <mergeCell ref="AG22:AG26"/>
-    <mergeCell ref="AP22:AP26"/>
-    <mergeCell ref="AP31:AP35"/>
-    <mergeCell ref="AA29:AE29"/>
-    <mergeCell ref="AG29:AH30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="I31:I35"/>
-    <mergeCell ref="Q31:Q35"/>
-    <mergeCell ref="Y31:Y35"/>
-    <mergeCell ref="AG31:AG35"/>
-    <mergeCell ref="AI29:AM29"/>
-    <mergeCell ref="AP29:AQ30"/>
+    <mergeCell ref="AA11:AE11"/>
+    <mergeCell ref="AG11:AH12"/>
+    <mergeCell ref="AI11:AM11"/>
+    <mergeCell ref="AP11:AQ12"/>
+    <mergeCell ref="AR11:AV11"/>
+    <mergeCell ref="Y11:Z12"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="Q11:R12"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AP4:AP8"/>
+    <mergeCell ref="Y2:Z3"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AG2:AH3"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="AP2:AQ3"/>
+    <mergeCell ref="AR2:AV2"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="S2:W2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:G8 H4">
     <cfRule type="colorScale" priority="27">
